--- a/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>FFHL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G8" s="3">
         <v>11400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>12600</v>
       </c>
-      <c r="F8" s="3">
-        <v>11600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>12900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>12500</v>
-      </c>
       <c r="I8" s="3">
-        <v>11400</v>
+        <v>12200</v>
       </c>
       <c r="J8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K8" s="3">
         <v>11000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="E9" s="3">
-        <v>10000</v>
+        <v>8100</v>
       </c>
       <c r="F9" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="G9" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="H9" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="I9" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="J9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K9" s="3">
         <v>9700</v>
-      </c>
-      <c r="K9" s="3">
-        <v>10000</v>
       </c>
       <c r="L9" s="3">
         <v>10000</v>
       </c>
       <c r="M9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N9" s="3">
         <v>9700</v>
-      </c>
-      <c r="N9" s="3">
-        <v>9500</v>
       </c>
       <c r="O9" s="3">
         <v>9500</v>
       </c>
       <c r="P9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="Q9" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3100</v>
+        <v>4300</v>
       </c>
       <c r="E10" s="3">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="F10" s="3">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="G10" s="3">
-        <v>3100</v>
+        <v>1700</v>
       </c>
       <c r="H10" s="3">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="I10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -998,8 +1017,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1007,14 +1026,17 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10700</v>
+        <v>10000</v>
       </c>
       <c r="E17" s="3">
-        <v>12100</v>
+        <v>10400</v>
       </c>
       <c r="F17" s="3">
         <v>11800</v>
       </c>
       <c r="G17" s="3">
-        <v>12600</v>
+        <v>11500</v>
       </c>
       <c r="H17" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="I17" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="L17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M17" s="3">
         <v>12400</v>
       </c>
-      <c r="J17" s="3">
-        <v>11900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>12500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>12400</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>800</v>
+        <v>2100</v>
       </c>
       <c r="E18" s="3">
+        <v>700</v>
+      </c>
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-900</v>
       </c>
       <c r="J18" s="3">
         <v>-900</v>
       </c>
       <c r="K18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L18" s="3">
         <v>-800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1400</v>
       </c>
       <c r="M18" s="3">
         <v>-1400</v>
       </c>
       <c r="N18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,29 +1220,29 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1217,57 +1250,63 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="E21" s="3">
         <v>2200</v>
       </c>
       <c r="F21" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="G21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>700</v>
       </c>
       <c r="J21" s="3">
         <v>700</v>
       </c>
       <c r="K21" s="3">
+        <v>700</v>
+      </c>
+      <c r="L21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>200</v>
       </c>
       <c r="N21" s="3">
         <v>200</v>
       </c>
       <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1281,13 +1320,13 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>400</v>
       </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1299,68 +1338,74 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>400</v>
       </c>
       <c r="O22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1200</v>
       </c>
       <c r="J23" s="3">
         <v>-1200</v>
       </c>
       <c r="K23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1369,11 +1414,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1381,11 +1426,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1393,13 +1438,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-500</v>
       </c>
       <c r="G26" s="3">
         <v>-500</v>
       </c>
       <c r="H26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1200</v>
       </c>
       <c r="J26" s="3">
         <v>-1200</v>
       </c>
       <c r="K26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-500</v>
       </c>
       <c r="G27" s="3">
         <v>-500</v>
       </c>
       <c r="H27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1200</v>
       </c>
       <c r="J27" s="3">
         <v>-1200</v>
       </c>
       <c r="K27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,29 +1784,29 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1745,57 +1814,63 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-500</v>
       </c>
       <c r="G33" s="3">
         <v>-500</v>
       </c>
       <c r="H33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1200</v>
       </c>
       <c r="J33" s="3">
         <v>-1200</v>
       </c>
       <c r="K33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-500</v>
       </c>
       <c r="G35" s="3">
         <v>-500</v>
       </c>
       <c r="H35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1200</v>
       </c>
       <c r="J35" s="3">
         <v>-1200</v>
       </c>
       <c r="K35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7200</v>
+        <v>8500</v>
       </c>
       <c r="E41" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="F41" s="3">
-        <v>4300</v>
+        <v>6800</v>
       </c>
       <c r="G41" s="3">
-        <v>1300</v>
+        <v>4200</v>
       </c>
       <c r="H41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,84 +2144,90 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M43" s="3">
         <v>3400</v>
       </c>
-      <c r="E43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M44" s="3">
         <v>3200</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3200</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3700</v>
       </c>
       <c r="N44" s="3">
         <v>3700</v>
@@ -2141,98 +2236,107 @@
         <v>3700</v>
       </c>
       <c r="P44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5400</v>
+        <v>4800</v>
       </c>
       <c r="E45" s="3">
-        <v>4600</v>
+        <v>5300</v>
       </c>
       <c r="F45" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G45" s="3">
-        <v>6600</v>
+        <v>4300</v>
       </c>
       <c r="H45" s="3">
-        <v>10500</v>
+        <v>6400</v>
       </c>
       <c r="I45" s="3">
-        <v>6600</v>
+        <v>10200</v>
       </c>
       <c r="J45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19200</v>
+        <v>20400</v>
       </c>
       <c r="E46" s="3">
-        <v>18500</v>
+        <v>18700</v>
       </c>
       <c r="F46" s="3">
-        <v>16300</v>
+        <v>18000</v>
       </c>
       <c r="G46" s="3">
-        <v>14700</v>
+        <v>15900</v>
       </c>
       <c r="H46" s="3">
-        <v>19900</v>
+        <v>14300</v>
       </c>
       <c r="I46" s="3">
-        <v>15300</v>
+        <v>19400</v>
       </c>
       <c r="J46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K46" s="3">
         <v>9800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19500</v>
-      </c>
-      <c r="O46" s="3">
-        <v>22600</v>
       </c>
       <c r="P46" s="3">
         <v>22600</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2379,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>44500</v>
+        <v>42400</v>
       </c>
       <c r="E48" s="3">
-        <v>44600</v>
+        <v>43400</v>
       </c>
       <c r="F48" s="3">
-        <v>46000</v>
+        <v>43500</v>
       </c>
       <c r="G48" s="3">
-        <v>47600</v>
+        <v>44900</v>
       </c>
       <c r="H48" s="3">
+        <v>46400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>48000</v>
+      </c>
+      <c r="J48" s="3">
         <v>49200</v>
       </c>
-      <c r="I48" s="3">
-        <v>50400</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>51700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>55100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>56800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>58200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>59400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>59800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2333,20 +2443,20 @@
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
         <v>2300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2500</v>
       </c>
       <c r="L49" s="3">
         <v>2500</v>
@@ -2355,16 +2465,19 @@
         <v>2500</v>
       </c>
       <c r="N49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O49" s="3">
         <v>2600</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2500</v>
       </c>
       <c r="P49" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,25 +2567,28 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
-        <v>3000</v>
-      </c>
       <c r="F52" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H52" s="3">
         <v>700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
@@ -2478,25 +2597,28 @@
         <v>1200</v>
       </c>
       <c r="K52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66600</v>
+        <v>65200</v>
       </c>
       <c r="E54" s="3">
-        <v>66100</v>
+        <v>65000</v>
       </c>
       <c r="F54" s="3">
-        <v>65300</v>
+        <v>64400</v>
       </c>
       <c r="G54" s="3">
-        <v>65200</v>
+        <v>63700</v>
       </c>
       <c r="H54" s="3">
-        <v>72700</v>
+        <v>63600</v>
       </c>
       <c r="I54" s="3">
-        <v>69300</v>
+        <v>70900</v>
       </c>
       <c r="J54" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K54" s="3">
         <v>65100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>76800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>83800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>86300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,96 +2748,103 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
-        <v>3200</v>
-      </c>
       <c r="F57" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="G57" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="H57" s="3">
         <v>2900</v>
       </c>
       <c r="I57" s="3">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="J57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33400</v>
+        <v>31500</v>
       </c>
       <c r="E58" s="3">
-        <v>33300</v>
+        <v>32500</v>
       </c>
       <c r="F58" s="3">
-        <v>33300</v>
+        <v>32500</v>
       </c>
       <c r="G58" s="3">
-        <v>32700</v>
+        <v>32500</v>
       </c>
       <c r="H58" s="3">
-        <v>38700</v>
+        <v>31900</v>
       </c>
       <c r="I58" s="3">
-        <v>35300</v>
+        <v>37700</v>
       </c>
       <c r="J58" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K58" s="3">
         <v>30300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>39900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>44700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>38300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>40800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>43000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,87 +2852,93 @@
         <v>1500</v>
       </c>
       <c r="E59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37900</v>
+        <v>35800</v>
       </c>
       <c r="E60" s="3">
-        <v>37800</v>
+        <v>36900</v>
       </c>
       <c r="F60" s="3">
-        <v>37200</v>
+        <v>36900</v>
       </c>
       <c r="G60" s="3">
-        <v>36600</v>
+        <v>36300</v>
       </c>
       <c r="H60" s="3">
+        <v>35700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>42500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K60" s="3">
+        <v>34500</v>
+      </c>
+      <c r="L60" s="3">
         <v>43600</v>
       </c>
-      <c r="I60" s="3">
-        <v>39900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>34500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>43600</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>49200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>42500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>47300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,10 +2979,13 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,13 +2993,13 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -2881,10 +3026,13 @@
         <v>400</v>
       </c>
       <c r="P62" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38200</v>
+        <v>36100</v>
       </c>
       <c r="E66" s="3">
-        <v>38200</v>
+        <v>37300</v>
       </c>
       <c r="F66" s="3">
-        <v>37500</v>
+        <v>37200</v>
       </c>
       <c r="G66" s="3">
-        <v>37000</v>
+        <v>36600</v>
       </c>
       <c r="H66" s="3">
-        <v>43900</v>
+        <v>36100</v>
       </c>
       <c r="I66" s="3">
-        <v>40300</v>
+        <v>42900</v>
       </c>
       <c r="J66" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K66" s="3">
         <v>34800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>47700</v>
       </c>
       <c r="P66" s="3">
         <v>47700</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>47700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-18400</v>
       </c>
-      <c r="E72" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-19000</v>
-      </c>
       <c r="G72" s="3">
-        <v>-18500</v>
+        <v>-18600</v>
       </c>
       <c r="H72" s="3">
-        <v>-18000</v>
+        <v>-18100</v>
       </c>
       <c r="I72" s="3">
-        <v>-17800</v>
+        <v>-17600</v>
       </c>
       <c r="J72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-16500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28400</v>
+        <v>29100</v>
       </c>
       <c r="E76" s="3">
-        <v>27900</v>
+        <v>27700</v>
       </c>
       <c r="F76" s="3">
-        <v>27800</v>
+        <v>27200</v>
       </c>
       <c r="G76" s="3">
-        <v>28200</v>
+        <v>27100</v>
       </c>
       <c r="H76" s="3">
-        <v>28700</v>
+        <v>27500</v>
       </c>
       <c r="I76" s="3">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="J76" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K76" s="3">
         <v>30200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-500</v>
       </c>
       <c r="G81" s="3">
         <v>-500</v>
       </c>
       <c r="H81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1200</v>
       </c>
       <c r="J81" s="3">
         <v>-1200</v>
       </c>
       <c r="K81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,22 +3825,23 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="E83" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="F83" s="3">
         <v>1700</v>
       </c>
       <c r="G83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H83" s="3">
         <v>1600</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
-        <v>2900</v>
-      </c>
       <c r="F89" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
-        <v>2400</v>
-      </c>
       <c r="J89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>700</v>
       </c>
-      <c r="H94" s="3">
-        <v>-3700</v>
-      </c>
       <c r="I94" s="3">
-        <v>-5000</v>
+        <v>-3600</v>
       </c>
       <c r="J94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K94" s="3">
         <v>7400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,57 +4566,63 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
-        <v>-6000</v>
-      </c>
       <c r="H100" s="3">
-        <v>3400</v>
+        <v>-5900</v>
       </c>
       <c r="I100" s="3">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="J100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-8300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4392,68 +4640,74 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>2500</v>
-      </c>
       <c r="F102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
-        <v>-4900</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-4800</v>
       </c>
       <c r="I102" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>FFHL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,46 +747,49 @@
         <v>12100</v>
       </c>
       <c r="E8" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G8" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K8" s="3">
         <v>11100</v>
       </c>
-      <c r="F8" s="3">
-        <v>12300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>11400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>12200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>11100</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,43 +800,46 @@
         <v>8100</v>
       </c>
       <c r="F9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="L9" s="3">
         <v>9700</v>
-      </c>
-      <c r="G9" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>9600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>9800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>9700</v>
-      </c>
-      <c r="L9" s="3">
-        <v>10000</v>
       </c>
       <c r="M9" s="3">
         <v>10000</v>
       </c>
       <c r="N9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O9" s="3">
         <v>9700</v>
-      </c>
-      <c r="O9" s="3">
-        <v>9500</v>
       </c>
       <c r="P9" s="3">
         <v>9500</v>
       </c>
       <c r="Q9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="R9" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,46 +847,49 @@
         <v>4300</v>
       </c>
       <c r="E10" s="3">
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="F10" s="3">
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="G10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M10" s="3">
         <v>1700</v>
       </c>
-      <c r="H10" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1020,8 +1040,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1029,14 +1049,17 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1110,43 +1137,46 @@
         <v>10400</v>
       </c>
       <c r="F17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="M17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="N17" s="3">
+        <v>12400</v>
+      </c>
+      <c r="O17" s="3">
         <v>11800</v>
       </c>
-      <c r="G17" s="3">
-        <v>11500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>12300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>12300</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="P17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>12100</v>
       </c>
-      <c r="K17" s="3">
-        <v>11900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>12500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>12400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>11800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>11600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>12100</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,46 +1184,49 @@
         <v>2100</v>
       </c>
       <c r="E18" s="3">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="F18" s="3">
+        <v>800</v>
+      </c>
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-900</v>
       </c>
       <c r="K18" s="3">
         <v>-900</v>
       </c>
       <c r="L18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M18" s="3">
         <v>-800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1400</v>
       </c>
       <c r="N18" s="3">
         <v>-1400</v>
       </c>
       <c r="O18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,41 +1244,42 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1253,13 +1287,16 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,46 +1304,49 @@
         <v>3200</v>
       </c>
       <c r="E21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G21" s="3">
         <v>2200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I21" s="3">
         <v>2100</v>
       </c>
-      <c r="G21" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1700</v>
-      </c>
       <c r="J21" s="3">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="K21" s="3">
         <v>700</v>
       </c>
       <c r="L21" s="3">
+        <v>700</v>
+      </c>
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>200</v>
       </c>
       <c r="O21" s="3">
         <v>200</v>
       </c>
       <c r="P21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1323,13 +1363,13 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
       </c>
       <c r="J22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1341,75 +1381,81 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
       </c>
       <c r="P22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1200</v>
       </c>
       <c r="K23" s="3">
         <v>-1200</v>
       </c>
       <c r="L23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1417,11 +1463,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1429,11 +1475,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1441,13 +1487,16 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="E26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1200</v>
       </c>
       <c r="K26" s="3">
         <v>-1200</v>
       </c>
       <c r="L26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="E27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1200</v>
       </c>
       <c r="K27" s="3">
         <v>-1200</v>
       </c>
       <c r="L27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,41 +1842,44 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1817,60 +1887,66 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="E33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-500</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
       </c>
       <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1200</v>
       </c>
       <c r="K33" s="3">
         <v>-1200</v>
       </c>
       <c r="L33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="E35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-500</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
       </c>
       <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1200</v>
       </c>
       <c r="K35" s="3">
         <v>-1200</v>
       </c>
       <c r="L35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="E41" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G41" s="3">
         <v>7000</v>
       </c>
-      <c r="F41" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>4200</v>
-      </c>
       <c r="H41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="K41" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
-        <v>3500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>3300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,90 +2237,96 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3800</v>
+        <v>6000</v>
       </c>
       <c r="E43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I43" s="3">
         <v>3300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="J43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K43" s="3">
-        <v>3500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="N43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>3600</v>
-      </c>
-      <c r="P43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="E44" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="F44" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="G44" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H44" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="I44" s="3">
         <v>3600</v>
       </c>
       <c r="J44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K44" s="3">
         <v>2500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3700</v>
       </c>
       <c r="O44" s="3">
         <v>3700</v>
@@ -2239,104 +2335,113 @@
         <v>3700</v>
       </c>
       <c r="Q44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="E45" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="F45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K45" s="3">
         <v>6400</v>
       </c>
-      <c r="I45" s="3">
-        <v>10200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>6400</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20400</v>
+        <v>22000</v>
       </c>
       <c r="E46" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>19400</v>
+      </c>
+      <c r="G46" s="3">
         <v>18700</v>
       </c>
-      <c r="F46" s="3">
-        <v>18000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>15900</v>
-      </c>
       <c r="H46" s="3">
-        <v>14300</v>
+        <v>16500</v>
       </c>
       <c r="I46" s="3">
-        <v>19400</v>
+        <v>14800</v>
       </c>
       <c r="J46" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K46" s="3">
         <v>15000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19500</v>
-      </c>
-      <c r="P46" s="3">
-        <v>22600</v>
       </c>
       <c r="Q46" s="3">
         <v>22600</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,55 +2487,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42400</v>
+        <v>43000</v>
       </c>
       <c r="E48" s="3">
-        <v>43400</v>
+        <v>44000</v>
       </c>
       <c r="F48" s="3">
-        <v>43500</v>
+        <v>45000</v>
       </c>
       <c r="G48" s="3">
-        <v>44900</v>
+        <v>45200</v>
       </c>
       <c r="H48" s="3">
-        <v>46400</v>
+        <v>46600</v>
       </c>
       <c r="I48" s="3">
-        <v>48000</v>
+        <v>48100</v>
       </c>
       <c r="J48" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K48" s="3">
         <v>49200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>51700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>55100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>56800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>58200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>59400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>59800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2446,20 +2557,20 @@
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2300</v>
       </c>
-      <c r="I49" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2500</v>
       </c>
       <c r="M49" s="3">
         <v>2500</v>
@@ -2468,16 +2579,19 @@
         <v>2500</v>
       </c>
       <c r="O49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P49" s="3">
         <v>2600</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2500</v>
       </c>
       <c r="Q49" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,28 +2687,31 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E52" s="3">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="F52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G52" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I52" s="3">
         <v>700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1200</v>
       </c>
       <c r="J52" s="3">
         <v>1200</v>
@@ -2600,25 +2720,28 @@
         <v>1200</v>
       </c>
       <c r="L52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65200</v>
+        <v>67600</v>
       </c>
       <c r="E54" s="3">
-        <v>65000</v>
+        <v>67700</v>
       </c>
       <c r="F54" s="3">
-        <v>64400</v>
+        <v>67400</v>
       </c>
       <c r="G54" s="3">
-        <v>63700</v>
+        <v>66900</v>
       </c>
       <c r="H54" s="3">
-        <v>63600</v>
+        <v>66100</v>
       </c>
       <c r="I54" s="3">
-        <v>70900</v>
+        <v>66000</v>
       </c>
       <c r="J54" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K54" s="3">
         <v>67600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>65100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>76800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>83800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>78700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>82700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>86300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,196 +2879,209 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>20200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>19700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31500</v>
+        <v>13300</v>
       </c>
       <c r="E58" s="3">
-        <v>32500</v>
+        <v>15400</v>
       </c>
       <c r="F58" s="3">
-        <v>32500</v>
+        <v>16600</v>
       </c>
       <c r="G58" s="3">
-        <v>32500</v>
+        <v>16700</v>
       </c>
       <c r="H58" s="3">
-        <v>31900</v>
+        <v>16900</v>
       </c>
       <c r="I58" s="3">
-        <v>37700</v>
+        <v>16400</v>
       </c>
       <c r="J58" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K58" s="3">
         <v>34400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>39900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>44700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>38300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>40800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>43000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
-        <v>1400</v>
-      </c>
       <c r="F59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G59" s="3">
         <v>1300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>1000</v>
       </c>
       <c r="I59" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35800</v>
+        <v>35100</v>
       </c>
       <c r="E60" s="3">
-        <v>36900</v>
+        <v>37100</v>
       </c>
       <c r="F60" s="3">
-        <v>36900</v>
+        <v>38300</v>
       </c>
       <c r="G60" s="3">
-        <v>36300</v>
+        <v>38300</v>
       </c>
       <c r="H60" s="3">
-        <v>35700</v>
+        <v>37600</v>
       </c>
       <c r="I60" s="3">
+        <v>37100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>39000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>34500</v>
+      </c>
+      <c r="M60" s="3">
+        <v>43600</v>
+      </c>
+      <c r="N60" s="3">
+        <v>49200</v>
+      </c>
+      <c r="O60" s="3">
         <v>42500</v>
       </c>
-      <c r="J60" s="3">
-        <v>39000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>34500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>43600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>49200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>42500</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>44700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>47300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,10 +3125,13 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2999,7 +3145,7 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -3029,10 +3175,13 @@
         <v>400</v>
       </c>
       <c r="Q62" s="3">
+        <v>400</v>
+      </c>
+      <c r="R62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36100</v>
+        <v>35400</v>
       </c>
       <c r="E66" s="3">
-        <v>37300</v>
+        <v>37400</v>
       </c>
       <c r="F66" s="3">
-        <v>37200</v>
+        <v>38700</v>
       </c>
       <c r="G66" s="3">
-        <v>36600</v>
+        <v>38600</v>
       </c>
       <c r="H66" s="3">
-        <v>36100</v>
+        <v>38000</v>
       </c>
       <c r="I66" s="3">
+        <v>37400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>44500</v>
+      </c>
+      <c r="K66" s="3">
+        <v>39300</v>
+      </c>
+      <c r="L66" s="3">
+        <v>34800</v>
+      </c>
+      <c r="M66" s="3">
+        <v>44000</v>
+      </c>
+      <c r="N66" s="3">
+        <v>49600</v>
+      </c>
+      <c r="O66" s="3">
         <v>42900</v>
       </c>
-      <c r="J66" s="3">
-        <v>39300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>34800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>44000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>49600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>42900</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>47700</v>
       </c>
       <c r="Q66" s="3">
         <v>47700</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>47700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-16500</v>
       </c>
-      <c r="E72" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>28700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>28200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>28100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>28600</v>
+      </c>
+      <c r="J76" s="3">
         <v>29100</v>
       </c>
-      <c r="E76" s="3">
-        <v>27700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>27200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>27100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>27500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>28000</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="E81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-500</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
       </c>
       <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1200</v>
       </c>
       <c r="K81" s="3">
         <v>-1200</v>
       </c>
       <c r="L81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,28 +4024,29 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1100</v>
       </c>
-      <c r="E83" s="3">
-        <v>1400</v>
-      </c>
       <c r="F83" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
       </c>
       <c r="H83" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="I83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J83" s="3">
         <v>1600</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2600</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F89" s="3">
         <v>1400</v>
       </c>
-      <c r="F89" s="3">
-        <v>2800</v>
-      </c>
       <c r="G89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>700</v>
       </c>
-      <c r="I94" s="3">
-        <v>-3600</v>
-      </c>
       <c r="J94" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,60 +4812,66 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1000</v>
+        <v>-1900</v>
       </c>
       <c r="E100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="H100" s="3">
-        <v>-5900</v>
-      </c>
       <c r="I100" s="3">
-        <v>3300</v>
+        <v>-6100</v>
       </c>
       <c r="J100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K100" s="3">
         <v>4900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4643,71 +4892,77 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7100</v>
+        <v>-2300</v>
       </c>
       <c r="E102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>2400</v>
-      </c>
       <c r="G102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
-        <v>-4800</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>FFHL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12100</v>
+        <v>12800</v>
       </c>
       <c r="E8" s="3">
         <v>12600</v>
       </c>
       <c r="F8" s="3">
-        <v>11600</v>
+        <v>12700</v>
       </c>
       <c r="G8" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="H8" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="I8" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K8" s="3">
         <v>13100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>12600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>11000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>11700</v>
       </c>
       <c r="N8" s="3">
         <v>11000</v>
       </c>
       <c r="O8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="P8" s="3">
+        <v>11000</v>
+      </c>
+      <c r="Q8" s="3">
         <v>10400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>10100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>10300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="E9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F9" s="3">
         <v>8100</v>
       </c>
-      <c r="F9" s="3">
-        <v>8400</v>
-      </c>
       <c r="G9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L9" s="3">
         <v>10100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="N9" s="3">
+        <v>9700</v>
+      </c>
+      <c r="O9" s="3">
         <v>10000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="P9" s="3">
         <v>10000</v>
       </c>
-      <c r="J9" s="3">
-        <v>10100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>10200</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="3">
         <v>9700</v>
       </c>
-      <c r="M9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>10000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>9700</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>9500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>9500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4300</v>
+        <v>5500</v>
       </c>
       <c r="E10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F10" s="3">
         <v>4500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K10" s="3">
         <v>3100</v>
       </c>
-      <c r="G10" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>800</v>
-      </c>
-      <c r="P10" s="3">
-        <v>600</v>
       </c>
       <c r="Q10" s="3">
         <v>800</v>
       </c>
       <c r="R10" s="3">
+        <v>600</v>
+      </c>
+      <c r="S10" s="3">
+        <v>800</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1043,23 +1083,29 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="E17" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F17" s="3">
         <v>10400</v>
       </c>
-      <c r="F17" s="3">
-        <v>10800</v>
-      </c>
       <c r="G17" s="3">
-        <v>12300</v>
+        <v>10900</v>
       </c>
       <c r="H17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="L17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="M17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="N17" s="3">
         <v>11900</v>
       </c>
-      <c r="I17" s="3">
-        <v>12700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>12700</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="P17" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="R17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="S17" s="3">
         <v>12100</v>
       </c>
-      <c r="L17" s="3">
-        <v>11900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>12500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>12400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>11800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>11600</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>12100</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="E18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
-        <v>500</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,10 +1322,10 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1266,87 +1334,99 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3200</v>
+        <v>4100</v>
       </c>
       <c r="E21" s="3">
-        <v>3300</v>
+        <v>4200</v>
       </c>
       <c r="F21" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I21" s="3">
         <v>2300</v>
       </c>
-      <c r="G21" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1366,16 +1446,16 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
@@ -1384,69 +1464,81 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="E23" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1700</v>
       </c>
       <c r="P23" s="3">
         <v>-1800</v>
       </c>
       <c r="Q23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1454,49 +1546,55 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E26" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="F26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1700</v>
       </c>
       <c r="P26" s="3">
         <v>-1800</v>
       </c>
       <c r="Q26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E27" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="F27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1700</v>
       </c>
       <c r="P27" s="3">
         <v>-1800</v>
       </c>
       <c r="Q27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,10 +1994,10 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -1866,87 +2006,99 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E33" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="F33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1700</v>
       </c>
       <c r="P33" s="3">
         <v>-1800</v>
       </c>
       <c r="Q33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E35" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="F35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1700</v>
       </c>
       <c r="P35" s="3">
         <v>-1800</v>
       </c>
       <c r="Q35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8100</v>
+        <v>13100</v>
       </c>
       <c r="E41" s="3">
-        <v>8800</v>
+        <v>11600</v>
       </c>
       <c r="F41" s="3">
-        <v>7300</v>
+        <v>8500</v>
       </c>
       <c r="G41" s="3">
-        <v>7000</v>
+        <v>9300</v>
       </c>
       <c r="H41" s="3">
-        <v>4400</v>
+        <v>7600</v>
       </c>
       <c r="I41" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2420,238 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="E43" s="3">
-        <v>3900</v>
+        <v>6400</v>
       </c>
       <c r="F43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P43" s="3">
         <v>3400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L43" s="3">
-        <v>3500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3000</v>
-      </c>
-      <c r="N43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="O43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>3600</v>
       </c>
       <c r="Q43" s="3">
         <v>4300</v>
       </c>
       <c r="R43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="E44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H44" s="3">
         <v>3400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P44" s="3">
         <v>3200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3700</v>
       </c>
       <c r="Q44" s="3">
         <v>3700</v>
       </c>
       <c r="R44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4300</v>
+        <v>2000</v>
       </c>
       <c r="E45" s="3">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F45" s="3">
-        <v>5500</v>
+        <v>4600</v>
       </c>
       <c r="G45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J45" s="3">
         <v>4700</v>
       </c>
-      <c r="H45" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>10600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>9400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>12900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>6100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>9000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>12700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22000</v>
+        <v>22800</v>
       </c>
       <c r="E46" s="3">
-        <v>21100</v>
+        <v>24400</v>
       </c>
       <c r="F46" s="3">
-        <v>19400</v>
+        <v>23000</v>
       </c>
       <c r="G46" s="3">
-        <v>18700</v>
+        <v>22100</v>
       </c>
       <c r="H46" s="3">
+        <v>20300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K46" s="3">
+        <v>14800</v>
+      </c>
+      <c r="L46" s="3">
+        <v>20100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="O46" s="3">
+        <v>17900</v>
+      </c>
+      <c r="P46" s="3">
+        <v>23100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>16500</v>
       </c>
-      <c r="I46" s="3">
-        <v>14800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>20100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>9800</v>
-      </c>
-      <c r="M46" s="3">
-        <v>17900</v>
-      </c>
-      <c r="N46" s="3">
-        <v>23100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>16500</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>19500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>22600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,58 +2700,70 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>43000</v>
+        <v>42500</v>
       </c>
       <c r="E48" s="3">
-        <v>44000</v>
+        <v>43600</v>
       </c>
       <c r="F48" s="3">
-        <v>45000</v>
+        <v>45100</v>
       </c>
       <c r="G48" s="3">
-        <v>45200</v>
+        <v>46000</v>
       </c>
       <c r="H48" s="3">
-        <v>46600</v>
+        <v>47200</v>
       </c>
       <c r="I48" s="3">
+        <v>47300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K48" s="3">
         <v>48100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>49800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>49200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>51700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>55100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>56800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>58200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>59400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>59800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2560,38 +2782,44 @@
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>2400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2300</v>
       </c>
       <c r="L49" s="3">
         <v>2400</v>
       </c>
       <c r="M49" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="N49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="O49" s="3">
         <v>2500</v>
       </c>
       <c r="P49" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="Q49" s="3">
         <v>2500</v>
       </c>
       <c r="R49" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S49" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,49 +2939,55 @@
         <v>2600</v>
       </c>
       <c r="E52" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F52" s="3">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="G52" s="3">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="H52" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K52" s="3">
         <v>700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1200</v>
       </c>
       <c r="L52" s="3">
         <v>1200</v>
       </c>
       <c r="M52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>70700</v>
+      </c>
+      <c r="F54" s="3">
+        <v>70800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>70900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>70600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>70000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K54" s="3">
+        <v>66000</v>
+      </c>
+      <c r="L54" s="3">
+        <v>73600</v>
+      </c>
+      <c r="M54" s="3">
         <v>67600</v>
       </c>
-      <c r="E54" s="3">
-        <v>67700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>67400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>66900</v>
-      </c>
-      <c r="H54" s="3">
-        <v>66100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>66000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>73600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>67600</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>65100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>76800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>83800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>78700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>82700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>86300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,208 +3140,234 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20500</v>
+        <v>17600</v>
       </c>
       <c r="E57" s="3">
-        <v>20200</v>
+        <v>3200</v>
       </c>
       <c r="F57" s="3">
-        <v>20200</v>
+        <v>21500</v>
       </c>
       <c r="G57" s="3">
-        <v>20200</v>
+        <v>21100</v>
       </c>
       <c r="H57" s="3">
+        <v>21200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K57" s="3">
         <v>19700</v>
       </c>
-      <c r="I57" s="3">
-        <v>19700</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>19400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13300</v>
+        <v>10400</v>
       </c>
       <c r="E58" s="3">
-        <v>15400</v>
+        <v>11400</v>
       </c>
       <c r="F58" s="3">
-        <v>16600</v>
+        <v>14000</v>
       </c>
       <c r="G58" s="3">
-        <v>16700</v>
+        <v>16100</v>
       </c>
       <c r="H58" s="3">
-        <v>16900</v>
+        <v>17400</v>
       </c>
       <c r="I58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K58" s="3">
         <v>16400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>22600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>34400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>30300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>39900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>44700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>38300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>40800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>43000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1500</v>
-      </c>
       <c r="G59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35100</v>
+        <v>29800</v>
       </c>
       <c r="E60" s="3">
+        <v>34600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>36800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>38900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>40200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>40100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K60" s="3">
         <v>37100</v>
       </c>
-      <c r="F60" s="3">
-        <v>38300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>38300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>37600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>37100</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>44100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>39000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>34500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>43600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>49200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>42500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>44700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>47300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,10 +3414,16 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3145,7 +3437,7 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -3178,10 +3470,16 @@
         <v>400</v>
       </c>
       <c r="R62" s="3">
+        <v>400</v>
+      </c>
+      <c r="S62" s="3">
+        <v>400</v>
+      </c>
+      <c r="T62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35400</v>
+        <v>30100</v>
       </c>
       <c r="E66" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F66" s="3">
+        <v>37100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>39200</v>
+      </c>
+      <c r="H66" s="3">
+        <v>40500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>40500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K66" s="3">
         <v>37400</v>
       </c>
-      <c r="F66" s="3">
-        <v>38700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>38600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>38000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>37400</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>44500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>39300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>34800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>44000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>49600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>42900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>45100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>47700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>47700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15200</v>
+        <v>-11800</v>
       </c>
       <c r="E72" s="3">
-        <v>-17100</v>
+        <v>-13800</v>
       </c>
       <c r="F72" s="3">
-        <v>-18600</v>
+        <v>-16000</v>
       </c>
       <c r="G72" s="3">
-        <v>-19100</v>
+        <v>-17900</v>
       </c>
       <c r="H72" s="3">
-        <v>-19300</v>
+        <v>-19500</v>
       </c>
       <c r="I72" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-18800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-18300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-17300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-16500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-15900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-14400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32100</v>
+        <v>37800</v>
       </c>
       <c r="E76" s="3">
+        <v>35800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>33600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>31700</v>
+      </c>
+      <c r="H76" s="3">
+        <v>30100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K76" s="3">
+        <v>28600</v>
+      </c>
+      <c r="L76" s="3">
+        <v>29100</v>
+      </c>
+      <c r="M76" s="3">
+        <v>28300</v>
+      </c>
+      <c r="N76" s="3">
         <v>30200</v>
       </c>
-      <c r="F76" s="3">
-        <v>28700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>28200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>28100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>28600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>29100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>28300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>30200</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>32800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>34200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>35800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>37600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>38600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="E81" s="3">
-        <v>1500</v>
+        <v>2100</v>
       </c>
       <c r="F81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1700</v>
       </c>
       <c r="P81" s="3">
         <v>-1800</v>
       </c>
       <c r="Q81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,34 +4421,36 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="E83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F83" s="3">
         <v>1100</v>
       </c>
-      <c r="F83" s="3">
-        <v>1500</v>
-      </c>
       <c r="G83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1600</v>
       </c>
       <c r="L83" s="3">
         <v>1600</v>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T83" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1400</v>
       </c>
       <c r="G89" s="3">
         <v>2900</v>
       </c>
       <c r="H89" s="3">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="I89" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>900</v>
+      </c>
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-2600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1300</v>
-      </c>
       <c r="G94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>7400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>2500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>4300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,66 +5301,78 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1900</v>
+        <v>-5400</v>
       </c>
       <c r="E100" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-6100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-8300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-4800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>6400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -4895,74 +5393,86 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2300</v>
+        <v>1100</v>
       </c>
       <c r="E102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="N102" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P102" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="E8" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="F8" s="3">
         <v>12700</v>
       </c>
       <c r="G8" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="H8" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="I8" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="J8" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="K8" s="3">
         <v>13100</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="E9" s="3">
         <v>7400</v>
       </c>
       <c r="F9" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="G9" s="3">
         <v>8500</v>
       </c>
       <c r="H9" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="I9" s="3">
         <v>10600</v>
       </c>
       <c r="J9" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="K9" s="3">
         <v>10000</v>
@@ -867,7 +867,7 @@
         <v>5500</v>
       </c>
       <c r="E10" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F10" s="3">
         <v>4500</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F17" s="3">
         <v>10500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>10400</v>
       </c>
       <c r="G17" s="3">
         <v>10900</v>
       </c>
       <c r="H17" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="I17" s="3">
         <v>12900</v>
       </c>
       <c r="J17" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="K17" s="3">
         <v>12700</v>
@@ -2320,10 +2320,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="E41" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="F41" s="3">
         <v>8500</v>
@@ -2332,7 +2332,7 @@
         <v>9300</v>
       </c>
       <c r="H41" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="I41" s="3">
         <v>7400</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="E46" s="3">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="F46" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="G46" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="H46" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="I46" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="J46" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="K46" s="3">
         <v>14800</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42500</v>
+        <v>42700</v>
       </c>
       <c r="E48" s="3">
-        <v>43600</v>
+        <v>43800</v>
       </c>
       <c r="F48" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="G48" s="3">
-        <v>46000</v>
+        <v>46200</v>
       </c>
       <c r="H48" s="3">
-        <v>47200</v>
+        <v>47400</v>
       </c>
       <c r="I48" s="3">
-        <v>47300</v>
+        <v>47500</v>
       </c>
       <c r="J48" s="3">
-        <v>48800</v>
+        <v>49000</v>
       </c>
       <c r="K48" s="3">
         <v>48100</v>
@@ -2951,7 +2951,7 @@
         <v>3100</v>
       </c>
       <c r="I52" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J52" s="3">
         <v>3200</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>67900</v>
+        <v>68200</v>
       </c>
       <c r="E54" s="3">
-        <v>70700</v>
+        <v>71000</v>
       </c>
       <c r="F54" s="3">
-        <v>70800</v>
+        <v>71100</v>
       </c>
       <c r="G54" s="3">
+        <v>71200</v>
+      </c>
+      <c r="H54" s="3">
         <v>70900</v>
       </c>
-      <c r="H54" s="3">
-        <v>70600</v>
-      </c>
       <c r="I54" s="3">
-        <v>70000</v>
+        <v>70400</v>
       </c>
       <c r="J54" s="3">
-        <v>69200</v>
+        <v>69500</v>
       </c>
       <c r="K54" s="3">
         <v>66000</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="E57" s="3">
         <v>3200</v>
       </c>
       <c r="F57" s="3">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="G57" s="3">
-        <v>21100</v>
+        <v>21200</v>
       </c>
       <c r="H57" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="I57" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="J57" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="K57" s="3">
         <v>19700</v>
@@ -3204,25 +3204,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="E58" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="F58" s="3">
         <v>14000</v>
       </c>
       <c r="G58" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="H58" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="I58" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="J58" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="K58" s="3">
         <v>16400</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="E60" s="3">
-        <v>34600</v>
+        <v>34800</v>
       </c>
       <c r="F60" s="3">
-        <v>36800</v>
+        <v>36900</v>
       </c>
       <c r="G60" s="3">
-        <v>38900</v>
+        <v>39000</v>
       </c>
       <c r="H60" s="3">
-        <v>40200</v>
+        <v>40300</v>
       </c>
       <c r="I60" s="3">
-        <v>40100</v>
+        <v>40300</v>
       </c>
       <c r="J60" s="3">
-        <v>39400</v>
+        <v>39600</v>
       </c>
       <c r="K60" s="3">
         <v>37100</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30100</v>
+        <v>30200</v>
       </c>
       <c r="E66" s="3">
-        <v>34900</v>
+        <v>35100</v>
       </c>
       <c r="F66" s="3">
-        <v>37100</v>
+        <v>37300</v>
       </c>
       <c r="G66" s="3">
-        <v>39200</v>
+        <v>39400</v>
       </c>
       <c r="H66" s="3">
-        <v>40500</v>
+        <v>40700</v>
       </c>
       <c r="I66" s="3">
-        <v>40500</v>
+        <v>40600</v>
       </c>
       <c r="J66" s="3">
-        <v>39800</v>
+        <v>40000</v>
       </c>
       <c r="K66" s="3">
         <v>37400</v>
@@ -3957,22 +3957,22 @@
         <v>-11800</v>
       </c>
       <c r="E72" s="3">
-        <v>-13800</v>
+        <v>-13900</v>
       </c>
       <c r="F72" s="3">
         <v>-16000</v>
       </c>
       <c r="G72" s="3">
-        <v>-17900</v>
+        <v>-18000</v>
       </c>
       <c r="H72" s="3">
-        <v>-19500</v>
+        <v>-19600</v>
       </c>
       <c r="I72" s="3">
-        <v>-20000</v>
+        <v>-20100</v>
       </c>
       <c r="J72" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="K72" s="3">
         <v>-18800</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37800</v>
+        <v>38000</v>
       </c>
       <c r="E76" s="3">
-        <v>35800</v>
+        <v>35900</v>
       </c>
       <c r="F76" s="3">
-        <v>33600</v>
+        <v>33800</v>
       </c>
       <c r="G76" s="3">
-        <v>31700</v>
+        <v>31800</v>
       </c>
       <c r="H76" s="3">
-        <v>30100</v>
+        <v>30200</v>
       </c>
       <c r="I76" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J76" s="3">
         <v>29600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>29400</v>
       </c>
       <c r="K76" s="3">
         <v>28600</v>
@@ -4765,7 +4765,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E89" s="3">
         <v>4300</v>
@@ -5440,7 +5440,7 @@
         <v>200</v>
       </c>
       <c r="I102" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J102" s="3">
         <v>1400</v>

--- a/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>FFHL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F8" s="3">
         <v>12900</v>
       </c>
-      <c r="E8" s="3">
-        <v>12700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>12700</v>
-      </c>
       <c r="G8" s="3">
-        <v>13300</v>
+        <v>13000</v>
       </c>
       <c r="H8" s="3">
-        <v>12200</v>
+        <v>13500</v>
       </c>
       <c r="I8" s="3">
-        <v>13500</v>
+        <v>12400</v>
       </c>
       <c r="J8" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K8" s="3">
         <v>12400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="E9" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="F9" s="3">
-        <v>8200</v>
+        <v>7600</v>
       </c>
       <c r="G9" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="H9" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="I9" s="3">
-        <v>10600</v>
+        <v>9000</v>
       </c>
       <c r="J9" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K9" s="3">
         <v>10500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9700</v>
-      </c>
-      <c r="O9" s="3">
-        <v>10000</v>
       </c>
       <c r="P9" s="3">
         <v>10000</v>
       </c>
       <c r="Q9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="R9" s="3">
         <v>9700</v>
-      </c>
-      <c r="R9" s="3">
-        <v>9500</v>
       </c>
       <c r="S9" s="3">
         <v>9500</v>
       </c>
       <c r="T9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="U9" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="E10" s="3">
-        <v>5300</v>
+        <v>5600</v>
       </c>
       <c r="F10" s="3">
-        <v>4500</v>
+        <v>5400</v>
       </c>
       <c r="G10" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H10" s="3">
-        <v>3300</v>
+        <v>4800</v>
       </c>
       <c r="I10" s="3">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="J10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1089,8 +1108,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1098,14 +1117,17 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10600</v>
+        <v>17200</v>
       </c>
       <c r="E17" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="F17" s="3">
         <v>10500</v>
       </c>
       <c r="G17" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="H17" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="I17" s="3">
-        <v>12900</v>
+        <v>11600</v>
       </c>
       <c r="J17" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K17" s="3">
         <v>12600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>12700</v>
       </c>
       <c r="L17" s="3">
         <v>12700</v>
       </c>
       <c r="M17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="N17" s="3">
         <v>12100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2300</v>
+        <v>-3800</v>
       </c>
       <c r="E18" s="3">
         <v>2400</v>
       </c>
       <c r="F18" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="G18" s="3">
         <v>2300</v>
       </c>
       <c r="H18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-900</v>
       </c>
       <c r="N18" s="3">
         <v>-900</v>
       </c>
       <c r="O18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P18" s="3">
         <v>-800</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q18" s="3">
         <v>-1400</v>
       </c>
       <c r="R18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1345,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1328,35 +1361,35 @@
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1364,69 +1397,75 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4100</v>
+        <v>-1900</v>
       </c>
       <c r="E21" s="3">
         <v>4200</v>
       </c>
       <c r="F21" s="3">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="G21" s="3">
         <v>3400</v>
       </c>
       <c r="H21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J21" s="3">
         <v>2400</v>
       </c>
-      <c r="I21" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1800</v>
-      </c>
-      <c r="M21" s="3">
-        <v>700</v>
       </c>
       <c r="N21" s="3">
         <v>700</v>
       </c>
       <c r="O21" s="3">
+        <v>700</v>
+      </c>
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>200</v>
       </c>
       <c r="R21" s="3">
         <v>200</v>
       </c>
       <c r="S21" s="3">
+        <v>200</v>
+      </c>
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1449,16 +1488,16 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>400</v>
       </c>
       <c r="M22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
@@ -1470,80 +1509,86 @@
         <v>300</v>
       </c>
       <c r="Q22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>400</v>
       </c>
       <c r="S22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2000</v>
+        <v>-4200</v>
       </c>
       <c r="E23" s="3">
         <v>2100</v>
       </c>
       <c r="F23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
-        <v>1900</v>
-      </c>
       <c r="H23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
+        <v>200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1200</v>
       </c>
       <c r="N23" s="3">
         <v>-1200</v>
       </c>
       <c r="O23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1552,11 +1597,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1564,11 +1609,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1576,11 +1621,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1588,13 +1633,16 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2100</v>
+        <v>-3300</v>
       </c>
       <c r="E26" s="3">
         <v>2100</v>
       </c>
       <c r="F26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
       </c>
       <c r="L26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1200</v>
       </c>
       <c r="N26" s="3">
         <v>-1200</v>
       </c>
       <c r="O26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2100</v>
+        <v>-3300</v>
       </c>
       <c r="E27" s="3">
         <v>2100</v>
       </c>
       <c r="F27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
       </c>
       <c r="L27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1200</v>
       </c>
       <c r="N27" s="3">
         <v>-1200</v>
       </c>
       <c r="O27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2051,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -2000,35 +2069,35 @@
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2036,69 +2105,75 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2100</v>
+        <v>-3300</v>
       </c>
       <c r="E33" s="3">
         <v>2100</v>
       </c>
       <c r="F33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
       </c>
       <c r="L33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1200</v>
       </c>
       <c r="N33" s="3">
         <v>-1200</v>
       </c>
       <c r="O33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2100</v>
+        <v>-3300</v>
       </c>
       <c r="E35" s="3">
         <v>2100</v>
       </c>
       <c r="F35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
       </c>
       <c r="L35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1200</v>
       </c>
       <c r="N35" s="3">
         <v>-1200</v>
       </c>
       <c r="O35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13200</v>
+        <v>17700</v>
       </c>
       <c r="E41" s="3">
-        <v>11700</v>
+        <v>13500</v>
       </c>
       <c r="F41" s="3">
-        <v>8500</v>
+        <v>11900</v>
       </c>
       <c r="G41" s="3">
-        <v>9300</v>
+        <v>8700</v>
       </c>
       <c r="H41" s="3">
-        <v>7700</v>
+        <v>9500</v>
       </c>
       <c r="I41" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="J41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K41" s="3">
         <v>4600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,108 +2515,114 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S43" s="3">
         <v>3600</v>
       </c>
-      <c r="E43" s="3">
-        <v>6400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>4100</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="T43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U43" s="3">
         <v>3300</v>
       </c>
-      <c r="L43" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="N43" s="3">
-        <v>3500</v>
-      </c>
-      <c r="O43" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>3600</v>
-      </c>
-      <c r="S43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E44" s="3">
-        <v>4000</v>
+        <v>4300</v>
       </c>
       <c r="F44" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H44" s="3">
         <v>3700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L44" s="3">
         <v>3600</v>
       </c>
-      <c r="H44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <v>3700</v>
       </c>
-      <c r="J44" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P44" s="3">
         <v>3600</v>
       </c>
-      <c r="L44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>3700</v>
       </c>
       <c r="R44" s="3">
         <v>3700</v>
@@ -2536,122 +2631,131 @@
         <v>3700</v>
       </c>
       <c r="T44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
-        <v>4600</v>
-      </c>
       <c r="G45" s="3">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="H45" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="I45" s="3">
-        <v>4900</v>
+        <v>5900</v>
       </c>
       <c r="J45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K45" s="3">
         <v>4700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22900</v>
+        <v>49500</v>
       </c>
       <c r="E46" s="3">
-        <v>24500</v>
+        <v>23400</v>
       </c>
       <c r="F46" s="3">
+        <v>25000</v>
+      </c>
+      <c r="G46" s="3">
+        <v>23600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>22700</v>
+      </c>
+      <c r="I46" s="3">
+        <v>20800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>17400</v>
+      </c>
+      <c r="L46" s="3">
+        <v>14800</v>
+      </c>
+      <c r="M46" s="3">
+        <v>20100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="P46" s="3">
+        <v>17900</v>
+      </c>
+      <c r="Q46" s="3">
         <v>23100</v>
       </c>
-      <c r="G46" s="3">
-        <v>22200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>20400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>19700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>17400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>14800</v>
-      </c>
-      <c r="L46" s="3">
-        <v>20100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>15000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>9800</v>
-      </c>
-      <c r="O46" s="3">
-        <v>17900</v>
-      </c>
-      <c r="P46" s="3">
-        <v>23100</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19500</v>
-      </c>
-      <c r="S46" s="3">
-        <v>22600</v>
       </c>
       <c r="T46" s="3">
         <v>22600</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,102 +2810,108 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42700</v>
+        <v>17400</v>
       </c>
       <c r="E48" s="3">
-        <v>43800</v>
+        <v>43600</v>
       </c>
       <c r="F48" s="3">
-        <v>45200</v>
+        <v>44800</v>
       </c>
       <c r="G48" s="3">
         <v>46200</v>
       </c>
       <c r="H48" s="3">
-        <v>47400</v>
+        <v>47200</v>
       </c>
       <c r="I48" s="3">
-        <v>47500</v>
+        <v>48400</v>
       </c>
       <c r="J48" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K48" s="3">
         <v>49000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>51700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>55100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>56800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>58200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>59400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>59800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2400</v>
       </c>
       <c r="L49" s="3">
         <v>2400</v>
       </c>
       <c r="M49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N49" s="3">
         <v>2300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2500</v>
       </c>
       <c r="P49" s="3">
         <v>2500</v>
@@ -2810,16 +2920,19 @@
         <v>2500</v>
       </c>
       <c r="R49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S49" s="3">
         <v>2600</v>
-      </c>
-      <c r="S49" s="3">
-        <v>2500</v>
       </c>
       <c r="T49" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,13 +3046,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E52" s="3">
         <v>2700</v>
@@ -2945,10 +3064,10 @@
         <v>2700</v>
       </c>
       <c r="G52" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H52" s="3">
-        <v>3100</v>
+        <v>2800</v>
       </c>
       <c r="I52" s="3">
         <v>3200</v>
@@ -2957,10 +3076,10 @@
         <v>3200</v>
       </c>
       <c r="K52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L52" s="3">
         <v>700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1200</v>
       </c>
       <c r="M52" s="3">
         <v>1200</v>
@@ -2969,25 +3088,28 @@
         <v>1200</v>
       </c>
       <c r="O52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>68200</v>
+        <v>69500</v>
       </c>
       <c r="E54" s="3">
-        <v>71000</v>
+        <v>69700</v>
       </c>
       <c r="F54" s="3">
-        <v>71100</v>
+        <v>72500</v>
       </c>
       <c r="G54" s="3">
-        <v>71200</v>
+        <v>72600</v>
       </c>
       <c r="H54" s="3">
-        <v>70900</v>
+        <v>72700</v>
       </c>
       <c r="I54" s="3">
-        <v>70400</v>
+        <v>72400</v>
       </c>
       <c r="J54" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K54" s="3">
         <v>69500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>73600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>67600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>76800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>83800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>78700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>82700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>86300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,232 +3271,245 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17700</v>
+        <v>15500</v>
       </c>
       <c r="E57" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
-        <v>21600</v>
-      </c>
       <c r="G57" s="3">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="H57" s="3">
-        <v>21300</v>
+        <v>21700</v>
       </c>
       <c r="I57" s="3">
-        <v>21300</v>
+        <v>21700</v>
       </c>
       <c r="J57" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K57" s="3">
         <v>20800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="E58" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="F58" s="3">
-        <v>14000</v>
+        <v>11700</v>
       </c>
       <c r="G58" s="3">
-        <v>16200</v>
+        <v>14300</v>
       </c>
       <c r="H58" s="3">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="I58" s="3">
-        <v>17600</v>
+        <v>17800</v>
       </c>
       <c r="J58" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K58" s="3">
         <v>17800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>22600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>34400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>30300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>39900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>44700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>38300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>40800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>43000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
-        <v>20100</v>
-      </c>
       <c r="F59" s="3">
-        <v>1300</v>
+        <v>20600</v>
       </c>
       <c r="G59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1000</v>
       </c>
       <c r="K59" s="3">
         <v>1000</v>
       </c>
       <c r="L59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>29900</v>
+        <v>33700</v>
       </c>
       <c r="E60" s="3">
-        <v>34800</v>
+        <v>30600</v>
       </c>
       <c r="F60" s="3">
-        <v>36900</v>
+        <v>35500</v>
       </c>
       <c r="G60" s="3">
+        <v>37700</v>
+      </c>
+      <c r="H60" s="3">
+        <v>39900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>41200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K60" s="3">
+        <v>39600</v>
+      </c>
+      <c r="L60" s="3">
+        <v>37100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>44100</v>
+      </c>
+      <c r="N60" s="3">
         <v>39000</v>
       </c>
-      <c r="H60" s="3">
-        <v>40300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>40300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>39600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>37100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>44100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>39000</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>43600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>49200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>42500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>44700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>47300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3420,10 +3562,13 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3476,10 +3621,13 @@
         <v>400</v>
       </c>
       <c r="T62" s="3">
+        <v>400</v>
+      </c>
+      <c r="U62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30200</v>
+        <v>34000</v>
       </c>
       <c r="E66" s="3">
-        <v>35100</v>
+        <v>30900</v>
       </c>
       <c r="F66" s="3">
-        <v>37300</v>
+        <v>35800</v>
       </c>
       <c r="G66" s="3">
-        <v>39400</v>
+        <v>38100</v>
       </c>
       <c r="H66" s="3">
-        <v>40700</v>
+        <v>40200</v>
       </c>
       <c r="I66" s="3">
-        <v>40600</v>
+        <v>41500</v>
       </c>
       <c r="J66" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K66" s="3">
         <v>40000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>44500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>44000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>42900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>45100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>47700</v>
       </c>
       <c r="T66" s="3">
         <v>47700</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>47700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11800</v>
+        <v>-15300</v>
       </c>
       <c r="E72" s="3">
-        <v>-13900</v>
+        <v>-12100</v>
       </c>
       <c r="F72" s="3">
-        <v>-16000</v>
+        <v>-14200</v>
       </c>
       <c r="G72" s="3">
-        <v>-18000</v>
+        <v>-16400</v>
       </c>
       <c r="H72" s="3">
-        <v>-19600</v>
+        <v>-18400</v>
       </c>
       <c r="I72" s="3">
-        <v>-20100</v>
+        <v>-20000</v>
       </c>
       <c r="J72" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-20300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38000</v>
+        <v>35500</v>
       </c>
       <c r="E76" s="3">
-        <v>35900</v>
+        <v>38800</v>
       </c>
       <c r="F76" s="3">
-        <v>33800</v>
+        <v>36700</v>
       </c>
       <c r="G76" s="3">
-        <v>31800</v>
+        <v>34500</v>
       </c>
       <c r="H76" s="3">
+        <v>32500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K76" s="3">
+        <v>29600</v>
+      </c>
+      <c r="L76" s="3">
+        <v>28600</v>
+      </c>
+      <c r="M76" s="3">
+        <v>29100</v>
+      </c>
+      <c r="N76" s="3">
+        <v>28300</v>
+      </c>
+      <c r="O76" s="3">
         <v>30200</v>
       </c>
-      <c r="I76" s="3">
-        <v>29700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>29600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>28600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>29100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>28300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>30200</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>37600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>38600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2100</v>
+        <v>-3300</v>
       </c>
       <c r="E81" s="3">
         <v>2100</v>
       </c>
       <c r="F81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
       </c>
       <c r="L81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1200</v>
       </c>
       <c r="N81" s="3">
         <v>-1200</v>
       </c>
       <c r="O81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,37 +4620,38 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="E83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1600</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1800</v>
       </c>
       <c r="J83" s="3">
         <v>1900</v>
       </c>
       <c r="K83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L83" s="3">
         <v>1700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1600</v>
       </c>
       <c r="M83" s="3">
         <v>1600</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,55 +4984,58 @@
         <v>7100</v>
       </c>
       <c r="E89" s="3">
-        <v>4300</v>
+        <v>7200</v>
       </c>
       <c r="F89" s="3">
-        <v>-300</v>
+        <v>4400</v>
       </c>
       <c r="G89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H89" s="3">
         <v>2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-2600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>4300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5400</v>
+        <v>-1200</v>
       </c>
       <c r="E100" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5374,8 +5622,8 @@
       <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5399,80 +5647,86 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H102" s="3">
-        <v>200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>2700</v>
-      </c>
-      <c r="J102" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="P102" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>FFHL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13500</v>
+        <v>15600</v>
       </c>
       <c r="E8" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="F8" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="G8" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="H8" s="3">
-        <v>13500</v>
+        <v>12800</v>
       </c>
       <c r="I8" s="3">
+        <v>13400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>13700</v>
+      </c>
+      <c r="L8" s="3">
         <v>12400</v>
       </c>
-      <c r="J8" s="3">
-        <v>13700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>12400</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7800</v>
+        <v>9100</v>
       </c>
       <c r="E9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G9" s="3">
         <v>7500</v>
       </c>
-      <c r="F9" s="3">
-        <v>7600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8300</v>
-      </c>
       <c r="H9" s="3">
-        <v>8700</v>
+        <v>8200</v>
       </c>
       <c r="I9" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="J9" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K9" s="3">
         <v>10800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9700</v>
-      </c>
-      <c r="P9" s="3">
-        <v>10000</v>
       </c>
       <c r="Q9" s="3">
         <v>10000</v>
       </c>
       <c r="R9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="S9" s="3">
         <v>9700</v>
-      </c>
-      <c r="S9" s="3">
-        <v>9500</v>
       </c>
       <c r="T9" s="3">
         <v>9500</v>
       </c>
       <c r="U9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="V9" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5700</v>
+        <v>6500</v>
       </c>
       <c r="E10" s="3">
         <v>5600</v>
       </c>
       <c r="F10" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="G10" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H10" s="3">
         <v>4600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4800</v>
       </c>
-      <c r="I10" s="3">
-        <v>3400</v>
-      </c>
       <c r="J10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1111,8 +1131,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1120,14 +1140,17 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17200</v>
+        <v>10700</v>
       </c>
       <c r="E17" s="3">
-        <v>10800</v>
+        <v>17000</v>
       </c>
       <c r="F17" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H17" s="3">
         <v>10500</v>
       </c>
-      <c r="G17" s="3">
-        <v>10700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>11200</v>
-      </c>
       <c r="I17" s="3">
-        <v>11600</v>
+        <v>11000</v>
       </c>
       <c r="J17" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K17" s="3">
         <v>13200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>12700</v>
       </c>
       <c r="M17" s="3">
         <v>12700</v>
       </c>
       <c r="N17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="O17" s="3">
         <v>12100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3800</v>
+        <v>4900</v>
       </c>
       <c r="E18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-900</v>
       </c>
       <c r="O18" s="3">
         <v>-900</v>
       </c>
       <c r="P18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1400</v>
       </c>
       <c r="R18" s="3">
         <v>-1400</v>
       </c>
       <c r="S18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,16 +1379,17 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1364,35 +1398,35 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1400,77 +1434,83 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G21" s="3">
         <v>4200</v>
       </c>
-      <c r="F21" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2500</v>
       </c>
       <c r="J21" s="3">
         <v>2400</v>
       </c>
       <c r="K21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L21" s="3">
         <v>1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1800</v>
-      </c>
-      <c r="N21" s="3">
-        <v>700</v>
       </c>
       <c r="O21" s="3">
         <v>700</v>
       </c>
       <c r="P21" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>200</v>
       </c>
       <c r="S21" s="3">
         <v>200</v>
       </c>
       <c r="T21" s="3">
+        <v>200</v>
+      </c>
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1488,19 +1528,19 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
       </c>
       <c r="M22" s="3">
         <v>400</v>
       </c>
       <c r="N22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
@@ -1512,87 +1552,93 @@
         <v>300</v>
       </c>
       <c r="R22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4200</v>
+        <v>4800</v>
       </c>
       <c r="E23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2000</v>
       </c>
       <c r="H23" s="3">
         <v>2000</v>
       </c>
       <c r="I23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1200</v>
       </c>
       <c r="O23" s="3">
         <v>-1200</v>
       </c>
       <c r="P23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-900</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1600,11 +1646,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1612,11 +1658,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1624,11 +1670,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1636,13 +1682,16 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3300</v>
+        <v>4800</v>
       </c>
       <c r="E26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1200</v>
       </c>
       <c r="O26" s="3">
         <v>-1200</v>
       </c>
       <c r="P26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3300</v>
+        <v>4800</v>
       </c>
       <c r="E27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1200</v>
       </c>
       <c r="O27" s="3">
         <v>-1200</v>
       </c>
       <c r="P27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,16 +2121,19 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -2072,35 +2142,35 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2108,72 +2178,78 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3300</v>
+        <v>4800</v>
       </c>
       <c r="E33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1200</v>
       </c>
       <c r="O33" s="3">
         <v>-1200</v>
       </c>
       <c r="P33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3300</v>
+        <v>4800</v>
       </c>
       <c r="E35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1200</v>
       </c>
       <c r="O35" s="3">
         <v>-1200</v>
       </c>
       <c r="P35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17700</v>
+        <v>33600</v>
       </c>
       <c r="E41" s="3">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="F41" s="3">
-        <v>11900</v>
+        <v>13300</v>
       </c>
       <c r="G41" s="3">
-        <v>8700</v>
+        <v>11800</v>
       </c>
       <c r="H41" s="3">
-        <v>9500</v>
+        <v>8600</v>
       </c>
       <c r="I41" s="3">
-        <v>7800</v>
+        <v>9400</v>
       </c>
       <c r="J41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K41" s="3">
         <v>7600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,114 +2608,120 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5100</v>
+        <v>7000</v>
       </c>
       <c r="E43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
-        <v>6500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3700</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G44" s="3">
         <v>4000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3800</v>
       </c>
       <c r="H44" s="3">
         <v>3700</v>
       </c>
       <c r="I44" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K44" s="3">
         <v>3800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3200</v>
-      </c>
-      <c r="R44" s="3">
-        <v>3700</v>
       </c>
       <c r="S44" s="3">
         <v>3700</v>
@@ -2634,128 +2730,137 @@
         <v>3700</v>
       </c>
       <c r="U44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="V44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22800</v>
+        <v>24000</v>
       </c>
       <c r="E45" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L45" s="3">
         <v>4700</v>
       </c>
-      <c r="H45" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>5900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>4700</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>49500</v>
+        <v>68000</v>
       </c>
       <c r="E46" s="3">
-        <v>23400</v>
+        <v>48800</v>
       </c>
       <c r="F46" s="3">
-        <v>25000</v>
+        <v>23100</v>
       </c>
       <c r="G46" s="3">
-        <v>23600</v>
+        <v>24700</v>
       </c>
       <c r="H46" s="3">
-        <v>22700</v>
+        <v>23300</v>
       </c>
       <c r="I46" s="3">
-        <v>20800</v>
+        <v>22400</v>
       </c>
       <c r="J46" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K46" s="3">
         <v>20100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19500</v>
-      </c>
-      <c r="T46" s="3">
-        <v>22600</v>
       </c>
       <c r="U46" s="3">
         <v>22600</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,67 +2918,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="E48" s="3">
-        <v>43600</v>
+        <v>17100</v>
       </c>
       <c r="F48" s="3">
-        <v>44800</v>
+        <v>43000</v>
       </c>
       <c r="G48" s="3">
-        <v>46200</v>
+        <v>44200</v>
       </c>
       <c r="H48" s="3">
-        <v>47200</v>
+        <v>45600</v>
       </c>
       <c r="I48" s="3">
-        <v>48400</v>
+        <v>46600</v>
       </c>
       <c r="J48" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K48" s="3">
         <v>48500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>49000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>48100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>51700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>55100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>56800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>58200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>59400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>59800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2898,23 +3009,23 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2400</v>
       </c>
       <c r="M49" s="3">
         <v>2400</v>
       </c>
       <c r="N49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O49" s="3">
         <v>2300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2400</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2500</v>
       </c>
       <c r="Q49" s="3">
         <v>2500</v>
@@ -2923,16 +3034,19 @@
         <v>2500</v>
       </c>
       <c r="S49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T49" s="3">
         <v>2600</v>
-      </c>
-      <c r="T49" s="3">
-        <v>2500</v>
       </c>
       <c r="U49" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,13 +3166,16 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E52" s="3">
         <v>2700</v>
@@ -3064,13 +3184,13 @@
         <v>2700</v>
       </c>
       <c r="G52" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H52" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I52" s="3">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="J52" s="3">
         <v>3200</v>
@@ -3079,10 +3199,10 @@
         <v>3200</v>
       </c>
       <c r="L52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M52" s="3">
         <v>700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1200</v>
       </c>
       <c r="N52" s="3">
         <v>1200</v>
@@ -3091,25 +3211,28 @@
         <v>1200</v>
       </c>
       <c r="P52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>68600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>68800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>71600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>71600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>71800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>71500</v>
+      </c>
+      <c r="K54" s="3">
+        <v>71800</v>
+      </c>
+      <c r="L54" s="3">
         <v>69500</v>
       </c>
-      <c r="E54" s="3">
-        <v>69700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>72500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>72600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>72700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>72400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>71800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>69500</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>73600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>67600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>65100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>76800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>83800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>78700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>82700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>86300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,244 +3402,257 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15500</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
-        <v>18100</v>
+        <v>15300</v>
       </c>
       <c r="F57" s="3">
+        <v>17800</v>
+      </c>
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
-        <v>22000</v>
-      </c>
       <c r="H57" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="I57" s="3">
-        <v>21700</v>
+        <v>21400</v>
       </c>
       <c r="J57" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K57" s="3">
         <v>21800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12500</v>
+        <v>21600</v>
       </c>
       <c r="E58" s="3">
-        <v>10700</v>
+        <v>12300</v>
       </c>
       <c r="F58" s="3">
-        <v>11700</v>
+        <v>10500</v>
       </c>
       <c r="G58" s="3">
-        <v>14300</v>
+        <v>11500</v>
       </c>
       <c r="H58" s="3">
-        <v>16500</v>
+        <v>14100</v>
       </c>
       <c r="I58" s="3">
+        <v>16300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K58" s="3">
+        <v>17900</v>
+      </c>
+      <c r="L58" s="3">
         <v>17800</v>
       </c>
-      <c r="J58" s="3">
-        <v>17900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>17800</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>22600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>34400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>30300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>39900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>44700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>38300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>40800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>43000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E59" s="3">
         <v>5700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
-        <v>20600</v>
-      </c>
       <c r="G59" s="3">
-        <v>1400</v>
+        <v>20300</v>
       </c>
       <c r="H59" s="3">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="I59" s="3">
         <v>1600</v>
       </c>
       <c r="J59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1000</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
       </c>
       <c r="M59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33700</v>
+        <v>47100</v>
       </c>
       <c r="E60" s="3">
-        <v>30600</v>
+        <v>33300</v>
       </c>
       <c r="F60" s="3">
-        <v>35500</v>
+        <v>30200</v>
       </c>
       <c r="G60" s="3">
-        <v>37700</v>
+        <v>35000</v>
       </c>
       <c r="H60" s="3">
-        <v>39900</v>
+        <v>37200</v>
       </c>
       <c r="I60" s="3">
-        <v>41200</v>
+        <v>39300</v>
       </c>
       <c r="J60" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K60" s="3">
         <v>41100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>37100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>44100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>39000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>43600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>49200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>42500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>44700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>47300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3565,10 +3708,13 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3585,7 +3731,7 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -3624,10 +3770,13 @@
         <v>400</v>
       </c>
       <c r="U62" s="3">
+        <v>400</v>
+      </c>
+      <c r="V62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34000</v>
+        <v>47400</v>
       </c>
       <c r="E66" s="3">
-        <v>30900</v>
+        <v>33500</v>
       </c>
       <c r="F66" s="3">
-        <v>35800</v>
+        <v>30500</v>
       </c>
       <c r="G66" s="3">
-        <v>38100</v>
+        <v>35400</v>
       </c>
       <c r="H66" s="3">
-        <v>40200</v>
+        <v>37600</v>
       </c>
       <c r="I66" s="3">
+        <v>39700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K66" s="3">
         <v>41500</v>
       </c>
-      <c r="J66" s="3">
-        <v>41500</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>44500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>44000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>42900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>45100</v>
-      </c>
-      <c r="T66" s="3">
-        <v>47700</v>
       </c>
       <c r="U66" s="3">
         <v>47700</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>47700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15300</v>
+        <v>-10300</v>
       </c>
       <c r="E72" s="3">
-        <v>-12100</v>
+        <v>-15100</v>
       </c>
       <c r="F72" s="3">
-        <v>-14200</v>
+        <v>-11900</v>
       </c>
       <c r="G72" s="3">
-        <v>-16400</v>
+        <v>-14000</v>
       </c>
       <c r="H72" s="3">
-        <v>-18400</v>
+        <v>-16200</v>
       </c>
       <c r="I72" s="3">
-        <v>-20000</v>
+        <v>-18200</v>
       </c>
       <c r="J72" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-20500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35500</v>
+        <v>39900</v>
       </c>
       <c r="E76" s="3">
-        <v>38800</v>
+        <v>35100</v>
       </c>
       <c r="F76" s="3">
-        <v>36700</v>
+        <v>38300</v>
       </c>
       <c r="G76" s="3">
-        <v>34500</v>
+        <v>36200</v>
       </c>
       <c r="H76" s="3">
-        <v>32500</v>
+        <v>34100</v>
       </c>
       <c r="I76" s="3">
-        <v>30900</v>
+        <v>32100</v>
       </c>
       <c r="J76" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K76" s="3">
         <v>30300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>37600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>38600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3300</v>
+        <v>4800</v>
       </c>
       <c r="E81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1200</v>
       </c>
       <c r="O81" s="3">
         <v>-1200</v>
       </c>
       <c r="P81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,40 +4819,41 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
-        <v>1800</v>
-      </c>
       <c r="F83" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1900</v>
       </c>
       <c r="K83" s="3">
         <v>1900</v>
       </c>
       <c r="L83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M83" s="3">
         <v>1700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1600</v>
       </c>
       <c r="N83" s="3">
         <v>1600</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F89" s="3">
         <v>7100</v>
       </c>
-      <c r="E89" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>4400</v>
-      </c>
       <c r="G89" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-2600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>4300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,72 +5795,78 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
-        <v>-5500</v>
-      </c>
       <c r="F100" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G100" s="3">
         <v>-2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
@@ -5625,8 +5874,8 @@
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5650,83 +5899,89 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5000</v>
+        <v>16900</v>
       </c>
       <c r="E102" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F102" s="3">
         <v>1200</v>
       </c>
-      <c r="F102" s="3">
-        <v>1700</v>
-      </c>
       <c r="G102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>FFHL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="E8" s="3">
-        <v>13300</v>
+        <v>15900</v>
       </c>
       <c r="F8" s="3">
+        <v>13500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>13200</v>
+      </c>
+      <c r="H8" s="3">
         <v>13000</v>
       </c>
-      <c r="G8" s="3">
-        <v>12800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>12800</v>
-      </c>
       <c r="I8" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="J8" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K8" s="3">
         <v>12300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="E9" s="3">
-        <v>7700</v>
+        <v>9300</v>
       </c>
       <c r="F9" s="3">
-        <v>7400</v>
+        <v>7800</v>
       </c>
       <c r="G9" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="H9" s="3">
-        <v>8200</v>
+        <v>7600</v>
       </c>
       <c r="I9" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="J9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K9" s="3">
         <v>8900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9700</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>10000</v>
       </c>
       <c r="R9" s="3">
         <v>10000</v>
       </c>
       <c r="S9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T9" s="3">
         <v>9700</v>
-      </c>
-      <c r="T9" s="3">
-        <v>9500</v>
       </c>
       <c r="U9" s="3">
         <v>9500</v>
       </c>
       <c r="V9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="W9" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="E10" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G10" s="3">
         <v>5600</v>
       </c>
-      <c r="F10" s="3">
-        <v>5500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5300</v>
-      </c>
       <c r="H10" s="3">
-        <v>4600</v>
+        <v>5400</v>
       </c>
       <c r="I10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J10" s="3">
         <v>4800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1154,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10700</v>
+        <v>11700</v>
       </c>
       <c r="E17" s="3">
-        <v>17000</v>
+        <v>10900</v>
       </c>
       <c r="F17" s="3">
-        <v>10700</v>
+        <v>17300</v>
       </c>
       <c r="G17" s="3">
-        <v>10300</v>
+        <v>10800</v>
       </c>
       <c r="H17" s="3">
         <v>10500</v>
       </c>
       <c r="I17" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="J17" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K17" s="3">
         <v>11400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>12700</v>
       </c>
       <c r="N17" s="3">
         <v>12700</v>
       </c>
       <c r="O17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="P17" s="3">
         <v>12100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4900</v>
+        <v>4100</v>
       </c>
       <c r="E18" s="3">
-        <v>-3700</v>
+        <v>5000</v>
       </c>
       <c r="F18" s="3">
-        <v>2300</v>
+        <v>-3800</v>
       </c>
       <c r="G18" s="3">
         <v>2400</v>
       </c>
       <c r="H18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I18" s="3">
         <v>2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-900</v>
       </c>
       <c r="P18" s="3">
         <v>-900</v>
       </c>
       <c r="Q18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R18" s="3">
         <v>-800</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-1400</v>
       </c>
       <c r="S18" s="3">
         <v>-1400</v>
       </c>
       <c r="T18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,10 +1423,10 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1401,35 +1435,35 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1437,75 +1471,81 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5600</v>
+        <v>4700</v>
       </c>
       <c r="E21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4100</v>
       </c>
       <c r="G21" s="3">
         <v>4200</v>
       </c>
       <c r="H21" s="3">
-        <v>3400</v>
+        <v>4300</v>
       </c>
       <c r="I21" s="3">
         <v>3500</v>
       </c>
       <c r="J21" s="3">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="K21" s="3">
         <v>2400</v>
       </c>
       <c r="L21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M21" s="3">
         <v>1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1800</v>
-      </c>
-      <c r="O21" s="3">
-        <v>700</v>
       </c>
       <c r="P21" s="3">
         <v>700</v>
       </c>
       <c r="Q21" s="3">
+        <v>700</v>
+      </c>
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>200</v>
       </c>
       <c r="T21" s="3">
         <v>200</v>
       </c>
       <c r="U21" s="3">
+        <v>200</v>
+      </c>
+      <c r="V21" s="3">
         <v>100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,16 +1553,16 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1531,19 +1571,19 @@
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>400</v>
       </c>
       <c r="N22" s="3">
         <v>400</v>
       </c>
       <c r="O22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
@@ -1555,93 +1595,99 @@
         <v>300</v>
       </c>
       <c r="S22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>400</v>
       </c>
       <c r="U22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="E23" s="3">
-        <v>-4100</v>
+        <v>4900</v>
       </c>
       <c r="F23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2000</v>
       </c>
       <c r="I23" s="3">
         <v>2000</v>
       </c>
       <c r="J23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1200</v>
       </c>
       <c r="P23" s="3">
         <v>-1200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-900</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1649,11 +1695,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1661,11 +1707,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1673,11 +1719,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1685,13 +1731,16 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4800</v>
+        <v>3100</v>
       </c>
       <c r="E26" s="3">
-        <v>-3200</v>
+        <v>4900</v>
       </c>
       <c r="F26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
       </c>
       <c r="M26" s="3">
         <v>-500</v>
       </c>
       <c r="N26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1200</v>
       </c>
       <c r="P26" s="3">
         <v>-1200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4800</v>
+        <v>3100</v>
       </c>
       <c r="E27" s="3">
-        <v>-3200</v>
+        <v>4900</v>
       </c>
       <c r="F27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-500</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
       </c>
       <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1200</v>
       </c>
       <c r="P27" s="3">
         <v>-1200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,10 +2203,10 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -2145,35 +2215,35 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2181,75 +2251,81 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4800</v>
+        <v>3100</v>
       </c>
       <c r="E33" s="3">
-        <v>-3200</v>
+        <v>4900</v>
       </c>
       <c r="F33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
       </c>
       <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1200</v>
       </c>
       <c r="P33" s="3">
         <v>-1200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4800</v>
+        <v>3100</v>
       </c>
       <c r="E35" s="3">
-        <v>-3200</v>
+        <v>4900</v>
       </c>
       <c r="F35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
       </c>
       <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1200</v>
       </c>
       <c r="P35" s="3">
         <v>-1200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33600</v>
+        <v>27600</v>
       </c>
       <c r="E41" s="3">
-        <v>17500</v>
+        <v>34200</v>
       </c>
       <c r="F41" s="3">
-        <v>13300</v>
+        <v>17800</v>
       </c>
       <c r="G41" s="3">
-        <v>11800</v>
+        <v>13500</v>
       </c>
       <c r="H41" s="3">
-        <v>8600</v>
+        <v>11900</v>
       </c>
       <c r="I41" s="3">
-        <v>9400</v>
+        <v>8700</v>
       </c>
       <c r="J41" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K41" s="3">
         <v>7700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,120 +2701,126 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="E43" s="3">
-        <v>5000</v>
+        <v>7100</v>
       </c>
       <c r="F43" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K43" s="3">
         <v>3600</v>
       </c>
-      <c r="G43" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U43" s="3">
         <v>3600</v>
       </c>
-      <c r="K43" s="3">
-        <v>3700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>4100</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="V43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="W43" s="3">
         <v>3300</v>
       </c>
-      <c r="N43" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="P43" s="3">
-        <v>3500</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>3000</v>
-      </c>
-      <c r="R43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="S43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>3600</v>
-      </c>
-      <c r="U43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="V43" s="3">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K44" s="3">
         <v>3400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="L44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M44" s="3">
         <v>3900</v>
       </c>
-      <c r="F44" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G44" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="N44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O44" s="3">
         <v>3700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="P44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R44" s="3">
         <v>3600</v>
       </c>
-      <c r="J44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>2500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3200</v>
-      </c>
-      <c r="S44" s="3">
-        <v>3700</v>
       </c>
       <c r="T44" s="3">
         <v>3700</v>
@@ -2733,134 +2829,143 @@
         <v>3700</v>
       </c>
       <c r="V44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="W44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24000</v>
+        <v>2000</v>
       </c>
       <c r="E45" s="3">
-        <v>22500</v>
+        <v>24400</v>
       </c>
       <c r="F45" s="3">
+        <v>22800</v>
+      </c>
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
-        <v>2500</v>
-      </c>
       <c r="H45" s="3">
-        <v>4600</v>
+        <v>2600</v>
       </c>
       <c r="I45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J45" s="3">
         <v>5300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>68000</v>
+        <v>40300</v>
       </c>
       <c r="E46" s="3">
-        <v>48800</v>
+        <v>69200</v>
       </c>
       <c r="F46" s="3">
+        <v>49600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>23500</v>
+      </c>
+      <c r="H46" s="3">
+        <v>25100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>23700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K46" s="3">
+        <v>20600</v>
+      </c>
+      <c r="L46" s="3">
+        <v>20100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>17400</v>
+      </c>
+      <c r="N46" s="3">
+        <v>14800</v>
+      </c>
+      <c r="O46" s="3">
+        <v>20100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>15000</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="R46" s="3">
+        <v>17900</v>
+      </c>
+      <c r="S46" s="3">
         <v>23100</v>
       </c>
-      <c r="G46" s="3">
-        <v>24700</v>
-      </c>
-      <c r="H46" s="3">
-        <v>23300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>22400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>20600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>20100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>17400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>14800</v>
-      </c>
-      <c r="N46" s="3">
-        <v>20100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>15000</v>
-      </c>
-      <c r="P46" s="3">
-        <v>9800</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>17900</v>
-      </c>
-      <c r="R46" s="3">
-        <v>23100</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19500</v>
-      </c>
-      <c r="U46" s="3">
-        <v>22600</v>
       </c>
       <c r="V46" s="3">
         <v>22600</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,70 +3026,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="E48" s="3">
-        <v>17100</v>
+        <v>17000</v>
       </c>
       <c r="F48" s="3">
-        <v>43000</v>
+        <v>17400</v>
       </c>
       <c r="G48" s="3">
-        <v>44200</v>
+        <v>43700</v>
       </c>
       <c r="H48" s="3">
-        <v>45600</v>
+        <v>44900</v>
       </c>
       <c r="I48" s="3">
-        <v>46600</v>
+        <v>46400</v>
       </c>
       <c r="J48" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K48" s="3">
         <v>47700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>48100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>51700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>55100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>56800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>58200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>59400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>59800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3012,23 +3123,23 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="M49" s="3">
-        <v>2400</v>
       </c>
       <c r="N49" s="3">
         <v>2400</v>
       </c>
       <c r="O49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P49" s="3">
         <v>2300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>2500</v>
       </c>
       <c r="R49" s="3">
         <v>2500</v>
@@ -3037,16 +3148,19 @@
         <v>2500</v>
       </c>
       <c r="T49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U49" s="3">
         <v>2600</v>
-      </c>
-      <c r="U49" s="3">
-        <v>2500</v>
       </c>
       <c r="V49" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,16 +3286,19 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E52" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F52" s="3">
         <v>2700</v>
@@ -3190,10 +3310,10 @@
         <v>2700</v>
       </c>
       <c r="I52" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J52" s="3">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="K52" s="3">
         <v>3200</v>
@@ -3202,10 +3322,10 @@
         <v>3200</v>
       </c>
       <c r="M52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1200</v>
       </c>
       <c r="O52" s="3">
         <v>1200</v>
@@ -3214,25 +3334,28 @@
         <v>1200</v>
       </c>
       <c r="Q52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>87300</v>
+        <v>59200</v>
       </c>
       <c r="E54" s="3">
-        <v>68600</v>
+        <v>88800</v>
       </c>
       <c r="F54" s="3">
-        <v>68800</v>
+        <v>69800</v>
       </c>
       <c r="G54" s="3">
-        <v>71600</v>
+        <v>69900</v>
       </c>
       <c r="H54" s="3">
-        <v>71600</v>
+        <v>72800</v>
       </c>
       <c r="I54" s="3">
+        <v>72800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>73000</v>
+      </c>
+      <c r="K54" s="3">
+        <v>71500</v>
+      </c>
+      <c r="L54" s="3">
         <v>71800</v>
       </c>
-      <c r="J54" s="3">
-        <v>71500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>71800</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>73600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>67600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>65100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>76800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>83800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>78700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>82700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>86300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,256 +3533,269 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="E57" s="3">
-        <v>15300</v>
+        <v>3200</v>
       </c>
       <c r="F57" s="3">
-        <v>17800</v>
+        <v>15500</v>
       </c>
       <c r="G57" s="3">
+        <v>18100</v>
+      </c>
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>22100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>21400</v>
+      </c>
+      <c r="L57" s="3">
         <v>21800</v>
       </c>
-      <c r="I57" s="3">
-        <v>21400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>21400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>21800</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21600</v>
+        <v>10200</v>
       </c>
       <c r="E58" s="3">
-        <v>12300</v>
+        <v>22000</v>
       </c>
       <c r="F58" s="3">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="G58" s="3">
-        <v>11500</v>
+        <v>10700</v>
       </c>
       <c r="H58" s="3">
-        <v>14100</v>
+        <v>11700</v>
       </c>
       <c r="I58" s="3">
-        <v>16300</v>
+        <v>14400</v>
       </c>
       <c r="J58" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K58" s="3">
         <v>17600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>16400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>34400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>30300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>39900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>44700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>38300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>40800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>43000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22400</v>
+        <v>1700</v>
       </c>
       <c r="E59" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F59" s="3">
         <v>5700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
-        <v>20300</v>
-      </c>
       <c r="H59" s="3">
-        <v>1300</v>
+        <v>20600</v>
       </c>
       <c r="I59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1000</v>
       </c>
       <c r="M59" s="3">
         <v>1000</v>
       </c>
       <c r="N59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47100</v>
+        <v>15300</v>
       </c>
       <c r="E60" s="3">
-        <v>33300</v>
+        <v>47900</v>
       </c>
       <c r="F60" s="3">
-        <v>30200</v>
+        <v>33800</v>
       </c>
       <c r="G60" s="3">
-        <v>35000</v>
+        <v>30700</v>
       </c>
       <c r="H60" s="3">
-        <v>37200</v>
+        <v>35600</v>
       </c>
       <c r="I60" s="3">
-        <v>39300</v>
+        <v>37900</v>
       </c>
       <c r="J60" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K60" s="3">
         <v>40600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>37100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>39000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>43600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>49200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>42500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>44700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>47300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3711,10 +3854,13 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3734,7 +3880,7 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
@@ -3773,10 +3919,13 @@
         <v>400</v>
       </c>
       <c r="V62" s="3">
+        <v>400</v>
+      </c>
+      <c r="W62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47400</v>
+        <v>15600</v>
       </c>
       <c r="E66" s="3">
-        <v>33500</v>
+        <v>48200</v>
       </c>
       <c r="F66" s="3">
-        <v>30500</v>
+        <v>34100</v>
       </c>
       <c r="G66" s="3">
-        <v>35400</v>
+        <v>31000</v>
       </c>
       <c r="H66" s="3">
-        <v>37600</v>
+        <v>36000</v>
       </c>
       <c r="I66" s="3">
-        <v>39700</v>
+        <v>38200</v>
       </c>
       <c r="J66" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K66" s="3">
         <v>41000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>44000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>49600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>42900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>45100</v>
-      </c>
-      <c r="U66" s="3">
-        <v>47700</v>
       </c>
       <c r="V66" s="3">
         <v>47700</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>47700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10300</v>
+        <v>-7400</v>
       </c>
       <c r="E72" s="3">
-        <v>-15100</v>
+        <v>-10500</v>
       </c>
       <c r="F72" s="3">
-        <v>-11900</v>
+        <v>-15400</v>
       </c>
       <c r="G72" s="3">
-        <v>-14000</v>
+        <v>-12100</v>
       </c>
       <c r="H72" s="3">
-        <v>-16200</v>
+        <v>-14200</v>
       </c>
       <c r="I72" s="3">
-        <v>-18200</v>
+        <v>-16400</v>
       </c>
       <c r="J72" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-19700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39900</v>
+        <v>43700</v>
       </c>
       <c r="E76" s="3">
-        <v>35100</v>
+        <v>40600</v>
       </c>
       <c r="F76" s="3">
-        <v>38300</v>
+        <v>35700</v>
       </c>
       <c r="G76" s="3">
-        <v>36200</v>
+        <v>38900</v>
       </c>
       <c r="H76" s="3">
-        <v>34100</v>
+        <v>36800</v>
       </c>
       <c r="I76" s="3">
-        <v>32100</v>
+        <v>34600</v>
       </c>
       <c r="J76" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K76" s="3">
         <v>30500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>37600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>38600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4800</v>
+        <v>3100</v>
       </c>
       <c r="E81" s="3">
-        <v>-3200</v>
+        <v>4900</v>
       </c>
       <c r="F81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
       </c>
       <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1200</v>
       </c>
       <c r="P81" s="3">
         <v>-1200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,34 +5028,34 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3">
-        <v>1700</v>
-      </c>
       <c r="G83" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1900</v>
       </c>
       <c r="L83" s="3">
         <v>1900</v>
       </c>
       <c r="M83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N83" s="3">
         <v>1700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1600</v>
       </c>
       <c r="O83" s="3">
         <v>1600</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>700</v>
+        <v>2400</v>
       </c>
       <c r="E89" s="3">
-        <v>7000</v>
+        <v>800</v>
       </c>
       <c r="F89" s="3">
         <v>7100</v>
       </c>
       <c r="G89" s="3">
-        <v>4300</v>
+        <v>7300</v>
       </c>
       <c r="H89" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-2600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>18200</v>
+        <v>900</v>
       </c>
       <c r="E94" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>4300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,84 +6041,90 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
-        <v>-5400</v>
-      </c>
       <c r="G100" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="H100" s="3">
         <v>-2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5902,86 +6151,92 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>16900</v>
+        <v>-8600</v>
       </c>
       <c r="E102" s="3">
-        <v>4900</v>
+        <v>17200</v>
       </c>
       <c r="F102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G102" s="3">
         <v>1200</v>
       </c>
-      <c r="G102" s="3">
-        <v>1600</v>
-      </c>
       <c r="H102" s="3">
-        <v>-2400</v>
+        <v>1700</v>
       </c>
       <c r="I102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5000</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
@@ -763,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="E8" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="F8" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="G8" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="H8" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="I8" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="J8" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="K8" s="3">
         <v>12300</v>
@@ -828,13 +828,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E9" s="3">
         <v>9300</v>
       </c>
       <c r="F9" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G9" s="3">
         <v>7600</v>
@@ -846,7 +846,7 @@
         <v>8400</v>
       </c>
       <c r="J9" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="K9" s="3">
         <v>8900</v>
@@ -893,16 +893,16 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="E10" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="F10" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G10" s="3">
         <v>5700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5600</v>
       </c>
       <c r="H10" s="3">
         <v>5400</v>
@@ -911,7 +911,7 @@
         <v>4700</v>
       </c>
       <c r="J10" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K10" s="3">
         <v>3300</v>
@@ -1265,25 +1265,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="E17" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>17400</v>
+      </c>
+      <c r="G17" s="3">
         <v>10900</v>
       </c>
-      <c r="F17" s="3">
-        <v>17300</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I17" s="3">
         <v>10800</v>
       </c>
-      <c r="H17" s="3">
-        <v>10500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10700</v>
-      </c>
       <c r="J17" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="K17" s="3">
         <v>11400</v>
@@ -1497,13 +1497,13 @@
         <v>4200</v>
       </c>
       <c r="H21" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I21" s="3">
         <v>3500</v>
       </c>
       <c r="J21" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K21" s="3">
         <v>2400</v>
@@ -1618,7 +1618,7 @@
         <v>4000</v>
       </c>
       <c r="E23" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F23" s="3">
         <v>-4200</v>
@@ -2580,25 +2580,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="E41" s="3">
-        <v>34200</v>
+        <v>34400</v>
       </c>
       <c r="F41" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="G41" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="H41" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="I41" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="J41" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="K41" s="3">
         <v>7700</v>
@@ -2713,7 +2713,7 @@
         <v>6900</v>
       </c>
       <c r="E43" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="F43" s="3">
         <v>5100</v>
@@ -2722,13 +2722,13 @@
         <v>3700</v>
       </c>
       <c r="H43" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="I43" s="3">
         <v>6500</v>
       </c>
       <c r="J43" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K43" s="3">
         <v>3600</v>
@@ -2775,7 +2775,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E44" s="3">
         <v>3500</v>
@@ -2843,13 +2843,13 @@
         <v>2000</v>
       </c>
       <c r="E45" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="F45" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="G45" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H45" s="3">
         <v>2600</v>
@@ -2858,7 +2858,7 @@
         <v>4700</v>
       </c>
       <c r="J45" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K45" s="3">
         <v>5800</v>
@@ -2905,25 +2905,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40300</v>
+        <v>40600</v>
       </c>
       <c r="E46" s="3">
-        <v>69200</v>
+        <v>69700</v>
       </c>
       <c r="F46" s="3">
-        <v>49600</v>
+        <v>50000</v>
       </c>
       <c r="G46" s="3">
-        <v>23500</v>
+        <v>23700</v>
       </c>
       <c r="H46" s="3">
-        <v>25100</v>
+        <v>25300</v>
       </c>
       <c r="I46" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="J46" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="K46" s="3">
         <v>20600</v>
@@ -3035,25 +3035,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="E48" s="3">
-        <v>17000</v>
+        <v>17200</v>
       </c>
       <c r="F48" s="3">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="G48" s="3">
-        <v>43700</v>
+        <v>44100</v>
       </c>
       <c r="H48" s="3">
-        <v>44900</v>
+        <v>45300</v>
       </c>
       <c r="I48" s="3">
-        <v>46400</v>
+        <v>46700</v>
       </c>
       <c r="J48" s="3">
-        <v>47400</v>
+        <v>47700</v>
       </c>
       <c r="K48" s="3">
         <v>47700</v>
@@ -3307,7 +3307,7 @@
         <v>2700</v>
       </c>
       <c r="H52" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I52" s="3">
         <v>2800</v>
@@ -3425,25 +3425,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59200</v>
+        <v>59700</v>
       </c>
       <c r="E54" s="3">
-        <v>88800</v>
+        <v>89500</v>
       </c>
       <c r="F54" s="3">
-        <v>69800</v>
+        <v>70300</v>
       </c>
       <c r="G54" s="3">
-        <v>69900</v>
+        <v>70500</v>
       </c>
       <c r="H54" s="3">
-        <v>72800</v>
+        <v>73300</v>
       </c>
       <c r="I54" s="3">
-        <v>72800</v>
+        <v>73400</v>
       </c>
       <c r="J54" s="3">
-        <v>73000</v>
+        <v>73500</v>
       </c>
       <c r="K54" s="3">
         <v>71500</v>
@@ -3546,19 +3546,19 @@
         <v>3200</v>
       </c>
       <c r="F57" s="3">
-        <v>15500</v>
+        <v>15700</v>
       </c>
       <c r="G57" s="3">
-        <v>18100</v>
+        <v>18300</v>
       </c>
       <c r="H57" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I57" s="3">
-        <v>22100</v>
+        <v>22300</v>
       </c>
       <c r="J57" s="3">
-        <v>21700</v>
+        <v>21900</v>
       </c>
       <c r="K57" s="3">
         <v>21400</v>
@@ -3605,25 +3605,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="E58" s="3">
-        <v>22000</v>
+        <v>22200</v>
       </c>
       <c r="F58" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="G58" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="H58" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="I58" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="J58" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="K58" s="3">
         <v>17600</v>
@@ -3673,16 +3673,16 @@
         <v>1700</v>
       </c>
       <c r="E59" s="3">
-        <v>22800</v>
+        <v>22900</v>
       </c>
       <c r="F59" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G59" s="3">
         <v>1800</v>
       </c>
       <c r="H59" s="3">
-        <v>20600</v>
+        <v>20800</v>
       </c>
       <c r="I59" s="3">
         <v>1400</v>
@@ -3735,25 +3735,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="E60" s="3">
-        <v>47900</v>
+        <v>48300</v>
       </c>
       <c r="F60" s="3">
-        <v>33800</v>
+        <v>34100</v>
       </c>
       <c r="G60" s="3">
-        <v>30700</v>
+        <v>30900</v>
       </c>
       <c r="H60" s="3">
-        <v>35600</v>
+        <v>35900</v>
       </c>
       <c r="I60" s="3">
-        <v>37900</v>
+        <v>38100</v>
       </c>
       <c r="J60" s="3">
-        <v>40000</v>
+        <v>40300</v>
       </c>
       <c r="K60" s="3">
         <v>40600</v>
@@ -3880,7 +3880,7 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
@@ -4125,25 +4125,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="E66" s="3">
-        <v>48200</v>
+        <v>48600</v>
       </c>
       <c r="F66" s="3">
-        <v>34100</v>
+        <v>34400</v>
       </c>
       <c r="G66" s="3">
-        <v>31000</v>
+        <v>31200</v>
       </c>
       <c r="H66" s="3">
-        <v>36000</v>
+        <v>36200</v>
       </c>
       <c r="I66" s="3">
-        <v>38200</v>
+        <v>38500</v>
       </c>
       <c r="J66" s="3">
-        <v>40400</v>
+        <v>40700</v>
       </c>
       <c r="K66" s="3">
         <v>41000</v>
@@ -4478,22 +4478,22 @@
         <v>-7400</v>
       </c>
       <c r="E72" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="F72" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="G72" s="3">
-        <v>-12100</v>
+        <v>-12200</v>
       </c>
       <c r="H72" s="3">
-        <v>-14200</v>
+        <v>-14300</v>
       </c>
       <c r="I72" s="3">
-        <v>-16400</v>
+        <v>-16600</v>
       </c>
       <c r="J72" s="3">
-        <v>-18500</v>
+        <v>-18600</v>
       </c>
       <c r="K72" s="3">
         <v>-19700</v>
@@ -4735,25 +4735,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43700</v>
+        <v>44000</v>
       </c>
       <c r="E76" s="3">
-        <v>40600</v>
+        <v>40900</v>
       </c>
       <c r="F76" s="3">
-        <v>35700</v>
+        <v>35900</v>
       </c>
       <c r="G76" s="3">
-        <v>38900</v>
+        <v>39200</v>
       </c>
       <c r="H76" s="3">
-        <v>36800</v>
+        <v>37100</v>
       </c>
       <c r="I76" s="3">
-        <v>34600</v>
+        <v>34900</v>
       </c>
       <c r="J76" s="3">
-        <v>32600</v>
+        <v>32800</v>
       </c>
       <c r="K76" s="3">
         <v>30500</v>
@@ -5421,7 +5421,7 @@
         <v>800</v>
       </c>
       <c r="F89" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="G89" s="3">
         <v>7300</v>
@@ -5433,7 +5433,7 @@
         <v>-400</v>
       </c>
       <c r="J89" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K89" s="3">
         <v>1500</v>
@@ -5703,13 +5703,13 @@
         <v>900</v>
       </c>
       <c r="E94" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="F94" s="3">
         <v>-900</v>
       </c>
       <c r="G94" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
@@ -6050,22 +6050,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11800</v>
+        <v>-11900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F100" s="3">
         <v>-1200</v>
       </c>
       <c r="G100" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="J100" s="3">
         <v>-1100</v>
@@ -6183,10 +6183,10 @@
         <v>-8600</v>
       </c>
       <c r="E102" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="F102" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G102" s="3">
         <v>1200</v>

--- a/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>FFHL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15900</v>
+        <v>58500</v>
       </c>
       <c r="E8" s="3">
-        <v>16000</v>
+        <v>14800</v>
       </c>
       <c r="F8" s="3">
-        <v>13600</v>
+        <v>15000</v>
       </c>
       <c r="G8" s="3">
-        <v>13300</v>
+        <v>12700</v>
       </c>
       <c r="H8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>13700</v>
+      </c>
+      <c r="L8" s="3">
+        <v>12300</v>
+      </c>
+      <c r="M8" s="3">
+        <v>13700</v>
+      </c>
+      <c r="N8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="O8" s="3">
         <v>13100</v>
       </c>
-      <c r="I8" s="3">
-        <v>13100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>13700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>12300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>13700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>12400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>13100</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9600</v>
+        <v>36500</v>
       </c>
       <c r="E9" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="F9" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J9" s="3">
         <v>7900</v>
       </c>
-      <c r="G9" s="3">
-        <v>7600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8400</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9700</v>
-      </c>
-      <c r="R9" s="3">
-        <v>10000</v>
       </c>
       <c r="S9" s="3">
         <v>10000</v>
       </c>
       <c r="T9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="U9" s="3">
         <v>9700</v>
-      </c>
-      <c r="U9" s="3">
-        <v>9500</v>
       </c>
       <c r="V9" s="3">
         <v>9500</v>
       </c>
       <c r="W9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="X9" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F10" s="3">
         <v>6300</v>
       </c>
-      <c r="E10" s="3">
-        <v>6700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5800</v>
-      </c>
       <c r="G10" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="H10" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="I10" s="3">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="J10" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K10" s="3">
         <v>4900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,8 +1177,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11800</v>
+        <v>44500</v>
       </c>
       <c r="E17" s="3">
         <v>11000</v>
       </c>
       <c r="F17" s="3">
-        <v>17400</v>
+        <v>10300</v>
       </c>
       <c r="G17" s="3">
-        <v>10900</v>
+        <v>16300</v>
       </c>
       <c r="H17" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="I17" s="3">
-        <v>10800</v>
+        <v>9900</v>
       </c>
       <c r="J17" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K17" s="3">
         <v>11300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>12700</v>
       </c>
       <c r="O17" s="3">
         <v>12700</v>
       </c>
       <c r="P17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>12100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4100</v>
+        <v>14000</v>
       </c>
       <c r="E18" s="3">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="F18" s="3">
-        <v>-3800</v>
+        <v>4700</v>
       </c>
       <c r="G18" s="3">
-        <v>2400</v>
+        <v>-3500</v>
       </c>
       <c r="H18" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="I18" s="3">
         <v>2300</v>
       </c>
       <c r="J18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-900</v>
       </c>
       <c r="Q18" s="3">
         <v>-900</v>
       </c>
       <c r="R18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S18" s="3">
         <v>-800</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-1400</v>
       </c>
       <c r="T18" s="3">
         <v>-1400</v>
       </c>
       <c r="U18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,22 +1447,23 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
@@ -1438,35 +1472,35 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1474,95 +1508,101 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4700</v>
+        <v>16600</v>
       </c>
       <c r="E21" s="3">
-        <v>5700</v>
+        <v>4400</v>
       </c>
       <c r="F21" s="3">
-        <v>-1900</v>
+        <v>5300</v>
       </c>
       <c r="G21" s="3">
-        <v>4200</v>
+        <v>-1800</v>
       </c>
       <c r="H21" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="I21" s="3">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="J21" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>2400</v>
       </c>
       <c r="L21" s="3">
         <v>2400</v>
       </c>
       <c r="M21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N21" s="3">
         <v>1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1800</v>
-      </c>
-      <c r="P21" s="3">
-        <v>700</v>
       </c>
       <c r="Q21" s="3">
         <v>700</v>
       </c>
       <c r="R21" s="3">
+        <v>700</v>
+      </c>
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>200</v>
       </c>
       <c r="U21" s="3">
         <v>200</v>
       </c>
       <c r="V21" s="3">
+        <v>200</v>
+      </c>
+      <c r="W21" s="3">
         <v>100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>400</v>
-      </c>
       <c r="H22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1574,19 +1614,19 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>400</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
       </c>
       <c r="P22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
@@ -1598,84 +1638,90 @@
         <v>300</v>
       </c>
       <c r="T22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U22" s="3">
         <v>400</v>
       </c>
       <c r="V22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="E23" s="3">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="F23" s="3">
-        <v>-4200</v>
+        <v>4600</v>
       </c>
       <c r="G23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q23" s="3">
         <v>-1200</v>
       </c>
       <c r="R23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1683,14 +1729,14 @@
         <v>900</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1698,11 +1744,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1710,11 +1756,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1722,11 +1768,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1734,13 +1780,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="E26" s="3">
-        <v>4900</v>
+        <v>2900</v>
       </c>
       <c r="F26" s="3">
-        <v>-3300</v>
+        <v>4600</v>
       </c>
       <c r="G26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="H26" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>2000</v>
-      </c>
       <c r="J26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-500</v>
       </c>
       <c r="N26" s="3">
         <v>-500</v>
       </c>
       <c r="O26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q26" s="3">
         <v>-1200</v>
       </c>
       <c r="R26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="E27" s="3">
-        <v>4900</v>
+        <v>2900</v>
       </c>
       <c r="F27" s="3">
-        <v>-3300</v>
+        <v>4600</v>
       </c>
       <c r="G27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="H27" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>2000</v>
-      </c>
       <c r="J27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-500</v>
       </c>
       <c r="N27" s="3">
         <v>-500</v>
       </c>
       <c r="O27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q27" s="3">
         <v>-1200</v>
       </c>
       <c r="R27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,22 +2261,25 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
@@ -2218,35 +2288,35 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2254,78 +2324,84 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="E33" s="3">
-        <v>4900</v>
+        <v>2900</v>
       </c>
       <c r="F33" s="3">
-        <v>-3300</v>
+        <v>4600</v>
       </c>
       <c r="G33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I33" s="3">
         <v>2100</v>
       </c>
-      <c r="H33" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2000</v>
-      </c>
       <c r="J33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-500</v>
       </c>
       <c r="N33" s="3">
         <v>-500</v>
       </c>
       <c r="O33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q33" s="3">
         <v>-1200</v>
       </c>
       <c r="R33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="E35" s="3">
-        <v>4900</v>
+        <v>2900</v>
       </c>
       <c r="F35" s="3">
-        <v>-3300</v>
+        <v>4600</v>
       </c>
       <c r="G35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I35" s="3">
         <v>2100</v>
       </c>
-      <c r="H35" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>2000</v>
-      </c>
       <c r="J35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-500</v>
       </c>
       <c r="N35" s="3">
         <v>-500</v>
       </c>
       <c r="O35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q35" s="3">
         <v>-1200</v>
       </c>
       <c r="R35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27800</v>
+        <v>36900</v>
       </c>
       <c r="E41" s="3">
-        <v>34400</v>
+        <v>25900</v>
       </c>
       <c r="F41" s="3">
-        <v>17900</v>
+        <v>32200</v>
       </c>
       <c r="G41" s="3">
-        <v>13600</v>
+        <v>16700</v>
       </c>
       <c r="H41" s="3">
-        <v>12000</v>
+        <v>12700</v>
       </c>
       <c r="I41" s="3">
-        <v>8800</v>
+        <v>11200</v>
       </c>
       <c r="J41" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K41" s="3">
         <v>9600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,126 +2794,132 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6900</v>
+        <v>4300</v>
       </c>
       <c r="E43" s="3">
-        <v>7200</v>
+        <v>6500</v>
       </c>
       <c r="F43" s="3">
-        <v>5100</v>
+        <v>6700</v>
       </c>
       <c r="G43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L43" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="H43" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="N43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U43" s="3">
         <v>4300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="V43" s="3">
         <v>3600</v>
       </c>
-      <c r="L43" s="3">
-        <v>3700</v>
-      </c>
-      <c r="M43" s="3">
-        <v>4100</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="W43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="X43" s="3">
         <v>3300</v>
       </c>
-      <c r="O43" s="3">
-        <v>2300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>3500</v>
-      </c>
-      <c r="R43" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="T43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="U43" s="3">
-        <v>3600</v>
-      </c>
-      <c r="V43" s="3">
-        <v>4300</v>
-      </c>
-      <c r="W43" s="3">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3900</v>
+        <v>5200</v>
       </c>
       <c r="E44" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H44" s="3">
         <v>4000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>4100</v>
       </c>
       <c r="I44" s="3">
         <v>3800</v>
       </c>
       <c r="J44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3200</v>
-      </c>
-      <c r="T44" s="3">
-        <v>3700</v>
       </c>
       <c r="U44" s="3">
         <v>3700</v>
@@ -2832,140 +2928,149 @@
         <v>3700</v>
       </c>
       <c r="W44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="X44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2000</v>
+        <v>5700</v>
       </c>
       <c r="E45" s="3">
-        <v>24600</v>
+        <v>1900</v>
       </c>
       <c r="F45" s="3">
         <v>23000</v>
       </c>
       <c r="G45" s="3">
-        <v>2100</v>
+        <v>21500</v>
       </c>
       <c r="H45" s="3">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="I45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N45" s="3">
         <v>4700</v>
       </c>
-      <c r="J45" s="3">
-        <v>5400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>5800</v>
-      </c>
-      <c r="L45" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>40600</v>
+        <v>52100</v>
       </c>
       <c r="E46" s="3">
-        <v>69700</v>
+        <v>37900</v>
       </c>
       <c r="F46" s="3">
-        <v>50000</v>
+        <v>65100</v>
       </c>
       <c r="G46" s="3">
+        <v>46700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>22100</v>
+      </c>
+      <c r="I46" s="3">
         <v>23700</v>
       </c>
-      <c r="H46" s="3">
-        <v>25300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>23900</v>
-      </c>
       <c r="J46" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K46" s="3">
         <v>23000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19500</v>
-      </c>
-      <c r="V46" s="3">
-        <v>22600</v>
       </c>
       <c r="W46" s="3">
         <v>22600</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,73 +3134,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16700</v>
+        <v>15800</v>
       </c>
       <c r="E48" s="3">
-        <v>17200</v>
+        <v>15600</v>
       </c>
       <c r="F48" s="3">
-        <v>17600</v>
+        <v>16000</v>
       </c>
       <c r="G48" s="3">
-        <v>44100</v>
+        <v>16400</v>
       </c>
       <c r="H48" s="3">
-        <v>45300</v>
+        <v>41200</v>
       </c>
       <c r="I48" s="3">
-        <v>46700</v>
+        <v>42300</v>
       </c>
       <c r="J48" s="3">
-        <v>47700</v>
+        <v>43600</v>
       </c>
       <c r="K48" s="3">
         <v>47700</v>
       </c>
       <c r="L48" s="3">
+        <v>47700</v>
+      </c>
+      <c r="M48" s="3">
         <v>48500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>48100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>49200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>51700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>55100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>56800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>58200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>59400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>59800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3126,23 +3237,23 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N49" s="3">
-        <v>2400</v>
       </c>
       <c r="O49" s="3">
         <v>2400</v>
       </c>
       <c r="P49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2400</v>
-      </c>
-      <c r="R49" s="3">
-        <v>2500</v>
       </c>
       <c r="S49" s="3">
         <v>2500</v>
@@ -3151,16 +3262,19 @@
         <v>2500</v>
       </c>
       <c r="U49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V49" s="3">
         <v>2600</v>
-      </c>
-      <c r="V49" s="3">
-        <v>2500</v>
       </c>
       <c r="W49" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,34 +3406,37 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K52" s="3">
         <v>2800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3200</v>
       </c>
       <c r="L52" s="3">
         <v>3200</v>
@@ -3325,10 +3445,10 @@
         <v>3200</v>
       </c>
       <c r="N52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O52" s="3">
         <v>700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1200</v>
       </c>
       <c r="P52" s="3">
         <v>1200</v>
@@ -3337,25 +3457,28 @@
         <v>1200</v>
       </c>
       <c r="R52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S52" s="3">
         <v>1300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59700</v>
+        <v>70100</v>
       </c>
       <c r="E54" s="3">
-        <v>89500</v>
+        <v>55800</v>
       </c>
       <c r="F54" s="3">
-        <v>70300</v>
+        <v>83600</v>
       </c>
       <c r="G54" s="3">
-        <v>70500</v>
+        <v>65700</v>
       </c>
       <c r="H54" s="3">
-        <v>73300</v>
+        <v>65800</v>
       </c>
       <c r="I54" s="3">
-        <v>73400</v>
+        <v>68500</v>
       </c>
       <c r="J54" s="3">
+        <v>68500</v>
+      </c>
+      <c r="K54" s="3">
         <v>73500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>73600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>67600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>65100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>76800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>83800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>78700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>82700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>86300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,268 +3664,281 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E57" s="3">
         <v>3200</v>
       </c>
       <c r="F57" s="3">
-        <v>15700</v>
+        <v>3000</v>
       </c>
       <c r="G57" s="3">
-        <v>18300</v>
+        <v>14600</v>
       </c>
       <c r="H57" s="3">
-        <v>3300</v>
+        <v>17100</v>
       </c>
       <c r="I57" s="3">
-        <v>22300</v>
+        <v>3100</v>
       </c>
       <c r="J57" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K57" s="3">
         <v>21900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>19700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10300</v>
+        <v>17000</v>
       </c>
       <c r="E58" s="3">
-        <v>22200</v>
+        <v>9600</v>
       </c>
       <c r="F58" s="3">
-        <v>12600</v>
+        <v>20700</v>
       </c>
       <c r="G58" s="3">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="H58" s="3">
-        <v>11800</v>
+        <v>10100</v>
       </c>
       <c r="I58" s="3">
-        <v>14500</v>
+        <v>11100</v>
       </c>
       <c r="J58" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K58" s="3">
         <v>16700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>16400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>22600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>34400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>30300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>39900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>44700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>38300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>40800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>43000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>21400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
-        <v>22900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>20800</v>
-      </c>
       <c r="I59" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M59" s="3">
         <v>1400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1000</v>
       </c>
       <c r="N59" s="3">
         <v>1000</v>
       </c>
       <c r="O59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15400</v>
+        <v>23100</v>
       </c>
       <c r="E60" s="3">
-        <v>48300</v>
+        <v>14400</v>
       </c>
       <c r="F60" s="3">
-        <v>34100</v>
+        <v>45100</v>
       </c>
       <c r="G60" s="3">
-        <v>30900</v>
+        <v>31800</v>
       </c>
       <c r="H60" s="3">
-        <v>35900</v>
+        <v>28900</v>
       </c>
       <c r="I60" s="3">
-        <v>38100</v>
+        <v>33500</v>
       </c>
       <c r="J60" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K60" s="3">
         <v>40300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>41100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>37100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>44100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>39000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>43600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>49200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>42500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>44700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>47300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3857,10 +4000,13 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3880,10 +4026,10 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
@@ -3922,10 +4068,13 @@
         <v>400</v>
       </c>
       <c r="W62" s="3">
+        <v>400</v>
+      </c>
+      <c r="X62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15700</v>
+        <v>23400</v>
       </c>
       <c r="E66" s="3">
-        <v>48600</v>
+        <v>14700</v>
       </c>
       <c r="F66" s="3">
-        <v>34400</v>
+        <v>45400</v>
       </c>
       <c r="G66" s="3">
-        <v>31200</v>
+        <v>32100</v>
       </c>
       <c r="H66" s="3">
-        <v>36200</v>
+        <v>29200</v>
       </c>
       <c r="I66" s="3">
-        <v>38500</v>
+        <v>33800</v>
       </c>
       <c r="J66" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K66" s="3">
         <v>40700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>44500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>39300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>44000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>42900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>45100</v>
-      </c>
-      <c r="V66" s="3">
-        <v>47700</v>
       </c>
       <c r="W66" s="3">
         <v>47700</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>47700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7400</v>
+        <v>-1300</v>
       </c>
       <c r="E72" s="3">
-        <v>-10600</v>
+        <v>-6900</v>
       </c>
       <c r="F72" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-15500</v>
       </c>
-      <c r="G72" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44000</v>
+        <v>46700</v>
       </c>
       <c r="E76" s="3">
-        <v>40900</v>
+        <v>41100</v>
       </c>
       <c r="F76" s="3">
-        <v>35900</v>
+        <v>38200</v>
       </c>
       <c r="G76" s="3">
-        <v>39200</v>
+        <v>33600</v>
       </c>
       <c r="H76" s="3">
-        <v>37100</v>
+        <v>36600</v>
       </c>
       <c r="I76" s="3">
-        <v>34900</v>
+        <v>34700</v>
       </c>
       <c r="J76" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K76" s="3">
         <v>32800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>35800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>37600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>38600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3100</v>
+        <v>13100</v>
       </c>
       <c r="E81" s="3">
-        <v>4900</v>
+        <v>2900</v>
       </c>
       <c r="F81" s="3">
-        <v>-3300</v>
+        <v>4600</v>
       </c>
       <c r="G81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I81" s="3">
         <v>2100</v>
       </c>
-      <c r="H81" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>2000</v>
-      </c>
       <c r="J81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-500</v>
       </c>
       <c r="N81" s="3">
         <v>-500</v>
       </c>
       <c r="O81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q81" s="3">
         <v>-1200</v>
       </c>
       <c r="R81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,46 +5217,47 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>400</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
-        <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2000</v>
-      </c>
       <c r="G83" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H83" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I83" s="3">
-        <v>1100</v>
+        <v>1700</v>
       </c>
       <c r="J83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1900</v>
       </c>
       <c r="M83" s="3">
         <v>1900</v>
       </c>
       <c r="N83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O83" s="3">
         <v>1700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1600</v>
       </c>
       <c r="P83" s="3">
         <v>1600</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2400</v>
+        <v>11800</v>
       </c>
       <c r="E89" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="F89" s="3">
-        <v>7200</v>
+        <v>700</v>
       </c>
       <c r="G89" s="3">
-        <v>7300</v>
+        <v>6700</v>
       </c>
       <c r="H89" s="3">
-        <v>4400</v>
+        <v>6800</v>
       </c>
       <c r="I89" s="3">
-        <v>-400</v>
+        <v>4100</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-2600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>900</v>
+        <v>17200</v>
       </c>
       <c r="E94" s="3">
-        <v>18600</v>
+        <v>800</v>
       </c>
       <c r="F94" s="3">
-        <v>-900</v>
+        <v>17400</v>
       </c>
       <c r="G94" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="H94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-6500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>4300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11900</v>
+        <v>-5700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2100</v>
+        <v>-11100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1200</v>
+        <v>-1900</v>
       </c>
       <c r="G100" s="3">
-        <v>-5600</v>
+        <v>-1100</v>
       </c>
       <c r="H100" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>700</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="S100" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="T100" s="3">
+        <v>6400</v>
+      </c>
+      <c r="U100" s="3">
         <v>-2500</v>
       </c>
-      <c r="I100" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>700</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>3400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>4900</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="S100" s="3">
-        <v>6400</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6154,89 +6403,95 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8600</v>
+        <v>23300</v>
       </c>
       <c r="E102" s="3">
-        <v>17300</v>
+        <v>-8100</v>
       </c>
       <c r="F102" s="3">
-        <v>5100</v>
+        <v>16200</v>
       </c>
       <c r="G102" s="3">
-        <v>1200</v>
+        <v>4700</v>
       </c>
       <c r="H102" s="3">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="I102" s="3">
-        <v>-2500</v>
+        <v>1600</v>
       </c>
       <c r="J102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5000</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>FFHL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>58500</v>
+        <v>15100</v>
       </c>
       <c r="E8" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G8" s="3">
         <v>14800</v>
       </c>
-      <c r="F8" s="3">
-        <v>15000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>12700</v>
-      </c>
       <c r="H8" s="3">
+        <v>12600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>12300</v>
+      </c>
+      <c r="L8" s="3">
+        <v>13700</v>
+      </c>
+      <c r="M8" s="3">
+        <v>12300</v>
+      </c>
+      <c r="N8" s="3">
+        <v>13700</v>
+      </c>
+      <c r="O8" s="3">
         <v>12400</v>
       </c>
-      <c r="I8" s="3">
-        <v>12200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>12300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>13700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>12300</v>
-      </c>
-      <c r="M8" s="3">
-        <v>13700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>12400</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36500</v>
+        <v>10700</v>
       </c>
       <c r="E9" s="3">
+        <v>36200</v>
+      </c>
+      <c r="F9" s="3">
         <v>8900</v>
       </c>
-      <c r="F9" s="3">
-        <v>8700</v>
-      </c>
       <c r="G9" s="3">
-        <v>7400</v>
+        <v>8600</v>
       </c>
       <c r="H9" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J9" s="3">
         <v>7100</v>
       </c>
-      <c r="I9" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9700</v>
-      </c>
-      <c r="S9" s="3">
-        <v>10000</v>
       </c>
       <c r="T9" s="3">
         <v>10000</v>
       </c>
       <c r="U9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="V9" s="3">
         <v>9700</v>
-      </c>
-      <c r="V9" s="3">
-        <v>9500</v>
       </c>
       <c r="W9" s="3">
         <v>9500</v>
       </c>
       <c r="X9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="Y9" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>21900</v>
+        <v>4400</v>
       </c>
       <c r="E10" s="3">
-        <v>5900</v>
+        <v>21700</v>
       </c>
       <c r="F10" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="G10" s="3">
-        <v>5400</v>
+        <v>6200</v>
       </c>
       <c r="H10" s="3">
         <v>5300</v>
       </c>
       <c r="I10" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="J10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K10" s="3">
         <v>4400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,8 +1200,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1189,14 +1209,17 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44500</v>
+        <v>12700</v>
       </c>
       <c r="E17" s="3">
-        <v>11000</v>
+        <v>44100</v>
       </c>
       <c r="F17" s="3">
-        <v>10300</v>
+        <v>10900</v>
       </c>
       <c r="G17" s="3">
-        <v>16300</v>
+        <v>10200</v>
       </c>
       <c r="H17" s="3">
-        <v>10200</v>
+        <v>16100</v>
       </c>
       <c r="I17" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="J17" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K17" s="3">
         <v>10100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>12700</v>
       </c>
       <c r="P17" s="3">
         <v>12700</v>
       </c>
       <c r="Q17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="R17" s="3">
         <v>12100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14000</v>
+        <v>2400</v>
       </c>
       <c r="E18" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-900</v>
       </c>
       <c r="R18" s="3">
         <v>-900</v>
       </c>
       <c r="S18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T18" s="3">
         <v>-800</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-1400</v>
       </c>
       <c r="U18" s="3">
         <v>-1400</v>
       </c>
       <c r="V18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,25 +1481,26 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1475,35 +1509,35 @@
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1511,95 +1545,101 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16600</v>
+        <v>3100</v>
       </c>
       <c r="E21" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F21" s="3">
         <v>4400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J21" s="3">
         <v>4000</v>
       </c>
-      <c r="I21" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>2400</v>
       </c>
       <c r="M21" s="3">
         <v>2400</v>
       </c>
       <c r="N21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O21" s="3">
         <v>1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>700</v>
       </c>
       <c r="R21" s="3">
         <v>700</v>
       </c>
       <c r="S21" s="3">
+        <v>700</v>
+      </c>
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100</v>
-      </c>
-      <c r="U21" s="3">
-        <v>200</v>
       </c>
       <c r="V21" s="3">
         <v>200</v>
       </c>
       <c r="W21" s="3">
+        <v>200</v>
+      </c>
+      <c r="X21" s="3">
         <v>100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1617,19 +1657,19 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>400</v>
       </c>
       <c r="P22" s="3">
         <v>400</v>
       </c>
       <c r="Q22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
@@ -1641,105 +1681,111 @@
         <v>300</v>
       </c>
       <c r="U22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V22" s="3">
         <v>400</v>
       </c>
       <c r="W22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14000</v>
+        <v>2500</v>
       </c>
       <c r="E23" s="3">
-        <v>3800</v>
+        <v>13900</v>
       </c>
       <c r="F23" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G23" s="3">
         <v>4600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-4000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1200</v>
       </c>
       <c r="R23" s="3">
         <v>-1200</v>
       </c>
       <c r="S23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-900</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1747,11 +1793,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1759,11 +1805,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1771,11 +1817,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1783,13 +1829,16 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>800</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13100</v>
+        <v>2500</v>
       </c>
       <c r="E26" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4600</v>
       </c>
-      <c r="G26" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
       </c>
       <c r="O26" s="3">
         <v>-500</v>
       </c>
       <c r="P26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-1200</v>
       </c>
       <c r="R26" s="3">
         <v>-1200</v>
       </c>
       <c r="S26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13100</v>
+        <v>2500</v>
       </c>
       <c r="E27" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
       </c>
       <c r="O27" s="3">
         <v>-500</v>
       </c>
       <c r="P27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-1200</v>
       </c>
       <c r="R27" s="3">
         <v>-1200</v>
       </c>
       <c r="S27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,25 +2331,28 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -2291,35 +2361,35 @@
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2327,81 +2397,87 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13100</v>
+        <v>2500</v>
       </c>
       <c r="E33" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="G33" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
       </c>
       <c r="O33" s="3">
         <v>-500</v>
       </c>
       <c r="P33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-1200</v>
       </c>
       <c r="R33" s="3">
         <v>-1200</v>
       </c>
       <c r="S33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13100</v>
+        <v>2500</v>
       </c>
       <c r="E35" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="G35" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
       </c>
       <c r="O35" s="3">
         <v>-500</v>
       </c>
       <c r="P35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-1200</v>
       </c>
       <c r="R35" s="3">
         <v>-1200</v>
       </c>
       <c r="S35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36900</v>
+        <v>38100</v>
       </c>
       <c r="E41" s="3">
-        <v>25900</v>
+        <v>36600</v>
       </c>
       <c r="F41" s="3">
-        <v>32200</v>
+        <v>25700</v>
       </c>
       <c r="G41" s="3">
-        <v>16700</v>
+        <v>31900</v>
       </c>
       <c r="H41" s="3">
-        <v>12700</v>
+        <v>16600</v>
       </c>
       <c r="I41" s="3">
-        <v>11200</v>
+        <v>12600</v>
       </c>
       <c r="J41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K41" s="3">
         <v>8200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,132 +2887,138 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
         <v>4300</v>
       </c>
-      <c r="E43" s="3">
-        <v>6500</v>
-      </c>
       <c r="F43" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="G43" s="3">
-        <v>4800</v>
+        <v>6600</v>
       </c>
       <c r="H43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I43" s="3">
         <v>3400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>6200</v>
       </c>
       <c r="J43" s="3">
         <v>6100</v>
       </c>
       <c r="K43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L43" s="3">
         <v>4300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E44" s="3">
         <v>5200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S44" s="3">
         <v>3300</v>
       </c>
-      <c r="G44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="T44" s="3">
         <v>3600</v>
       </c>
-      <c r="K44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3800</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3900</v>
-      </c>
-      <c r="O44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R44" s="3">
-        <v>3300</v>
-      </c>
-      <c r="S44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3200</v>
-      </c>
-      <c r="U44" s="3">
-        <v>3700</v>
       </c>
       <c r="V44" s="3">
         <v>3700</v>
@@ -2931,146 +3027,155 @@
         <v>3700</v>
       </c>
       <c r="X44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5700</v>
+        <v>4500</v>
       </c>
       <c r="E45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
-        <v>23000</v>
-      </c>
       <c r="G45" s="3">
-        <v>21500</v>
+        <v>22800</v>
       </c>
       <c r="H45" s="3">
+        <v>21300</v>
+      </c>
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>9000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>52100</v>
+        <v>52300</v>
       </c>
       <c r="E46" s="3">
-        <v>37900</v>
+        <v>51700</v>
       </c>
       <c r="F46" s="3">
-        <v>65100</v>
+        <v>37600</v>
       </c>
       <c r="G46" s="3">
-        <v>46700</v>
+        <v>64500</v>
       </c>
       <c r="H46" s="3">
-        <v>22100</v>
+        <v>46300</v>
       </c>
       <c r="I46" s="3">
-        <v>23700</v>
+        <v>21900</v>
       </c>
       <c r="J46" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K46" s="3">
         <v>22300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>20100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>23100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>19500</v>
-      </c>
-      <c r="W46" s="3">
-        <v>22600</v>
       </c>
       <c r="X46" s="3">
         <v>22600</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,76 +3242,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="E48" s="3">
         <v>15600</v>
       </c>
       <c r="F48" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="G48" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="H48" s="3">
-        <v>41200</v>
+        <v>16300</v>
       </c>
       <c r="I48" s="3">
-        <v>42300</v>
+        <v>40800</v>
       </c>
       <c r="J48" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K48" s="3">
         <v>43600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>47700</v>
       </c>
       <c r="L48" s="3">
         <v>47700</v>
       </c>
       <c r="M48" s="3">
+        <v>47700</v>
+      </c>
+      <c r="N48" s="3">
         <v>48500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>48100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>49800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>49200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>51700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>55100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>56800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>58200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>59400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>59800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3240,23 +3351,23 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2400</v>
       </c>
       <c r="P49" s="3">
         <v>2400</v>
       </c>
       <c r="Q49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R49" s="3">
         <v>2300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2400</v>
-      </c>
-      <c r="S49" s="3">
-        <v>2500</v>
       </c>
       <c r="T49" s="3">
         <v>2500</v>
@@ -3265,16 +3376,19 @@
         <v>2500</v>
       </c>
       <c r="V49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W49" s="3">
         <v>2600</v>
-      </c>
-      <c r="W49" s="3">
-        <v>2500</v>
       </c>
       <c r="X49" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3421,25 +3541,25 @@
         <v>2200</v>
       </c>
       <c r="F52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G52" s="3">
         <v>2400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2500</v>
       </c>
       <c r="H52" s="3">
         <v>2500</v>
       </c>
       <c r="I52" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J52" s="3">
         <v>2600</v>
       </c>
       <c r="K52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L52" s="3">
         <v>2800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3200</v>
       </c>
       <c r="M52" s="3">
         <v>3200</v>
@@ -3448,10 +3568,10 @@
         <v>3200</v>
       </c>
       <c r="O52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P52" s="3">
         <v>700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1200</v>
       </c>
       <c r="Q52" s="3">
         <v>1200</v>
@@ -3460,25 +3580,28 @@
         <v>1200</v>
       </c>
       <c r="S52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T52" s="3">
         <v>1300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70100</v>
+        <v>69700</v>
       </c>
       <c r="E54" s="3">
-        <v>55800</v>
+        <v>69500</v>
       </c>
       <c r="F54" s="3">
-        <v>83600</v>
+        <v>55300</v>
       </c>
       <c r="G54" s="3">
-        <v>65700</v>
+        <v>82800</v>
       </c>
       <c r="H54" s="3">
-        <v>65800</v>
+        <v>65100</v>
       </c>
       <c r="I54" s="3">
+        <v>65200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K54" s="3">
         <v>68500</v>
       </c>
-      <c r="J54" s="3">
-        <v>68500</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>73500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>69500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>73600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>67600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>65100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>76800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>83800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>78700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>82700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>86300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,280 +3795,293 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>14500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
-        <v>14600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>17100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>19700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>19400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17000</v>
+        <v>15100</v>
       </c>
       <c r="E58" s="3">
-        <v>9600</v>
+        <v>16800</v>
       </c>
       <c r="F58" s="3">
-        <v>20700</v>
+        <v>9500</v>
       </c>
       <c r="G58" s="3">
-        <v>11800</v>
+        <v>20500</v>
       </c>
       <c r="H58" s="3">
-        <v>10100</v>
+        <v>11700</v>
       </c>
       <c r="I58" s="3">
-        <v>11100</v>
+        <v>10000</v>
       </c>
       <c r="J58" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K58" s="3">
         <v>13500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>16400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>22600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>34400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>30300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>39900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>44700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>38300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>40800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>43000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
-        <v>21400</v>
-      </c>
       <c r="G59" s="3">
+        <v>21200</v>
+      </c>
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
-        <v>19400</v>
-      </c>
       <c r="J59" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1000</v>
       </c>
       <c r="O59" s="3">
         <v>1000</v>
       </c>
       <c r="P59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23100</v>
+        <v>20700</v>
       </c>
       <c r="E60" s="3">
-        <v>14400</v>
+        <v>22900</v>
       </c>
       <c r="F60" s="3">
-        <v>45100</v>
+        <v>14300</v>
       </c>
       <c r="G60" s="3">
-        <v>31800</v>
+        <v>44700</v>
       </c>
       <c r="H60" s="3">
-        <v>28900</v>
+        <v>31500</v>
       </c>
       <c r="I60" s="3">
-        <v>33500</v>
+        <v>28600</v>
       </c>
       <c r="J60" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K60" s="3">
         <v>35600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>41100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>39600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>37100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>44100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>39000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>34500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>43600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>49200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>42500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>44700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>47300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4003,10 +4146,13 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4032,7 +4178,7 @@
         <v>300</v>
       </c>
       <c r="K62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
@@ -4071,10 +4217,13 @@
         <v>400</v>
       </c>
       <c r="X62" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23400</v>
+        <v>20900</v>
       </c>
       <c r="E66" s="3">
-        <v>14700</v>
+        <v>23200</v>
       </c>
       <c r="F66" s="3">
-        <v>45400</v>
+        <v>14500</v>
       </c>
       <c r="G66" s="3">
-        <v>32100</v>
+        <v>45000</v>
       </c>
       <c r="H66" s="3">
-        <v>29200</v>
+        <v>31800</v>
       </c>
       <c r="I66" s="3">
-        <v>33800</v>
+        <v>28900</v>
       </c>
       <c r="J66" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K66" s="3">
         <v>36000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>40000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>44500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>44000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>42900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>45100</v>
-      </c>
-      <c r="W66" s="3">
-        <v>47700</v>
       </c>
       <c r="X66" s="3">
         <v>47700</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>47700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6900</v>
       </c>
-      <c r="F72" s="3">
-        <v>-9900</v>
-      </c>
       <c r="G72" s="3">
-        <v>-14500</v>
+        <v>-9800</v>
       </c>
       <c r="H72" s="3">
-        <v>-11400</v>
+        <v>-14300</v>
       </c>
       <c r="I72" s="3">
-        <v>-13400</v>
+        <v>-11300</v>
       </c>
       <c r="J72" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-15500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-20500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46700</v>
+        <v>48800</v>
       </c>
       <c r="E76" s="3">
-        <v>41100</v>
+        <v>46300</v>
       </c>
       <c r="F76" s="3">
-        <v>38200</v>
+        <v>40700</v>
       </c>
       <c r="G76" s="3">
-        <v>33600</v>
+        <v>37800</v>
       </c>
       <c r="H76" s="3">
-        <v>36600</v>
+        <v>33300</v>
       </c>
       <c r="I76" s="3">
-        <v>34700</v>
+        <v>36300</v>
       </c>
       <c r="J76" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K76" s="3">
         <v>32600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>34200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>35800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>37600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>38600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13100</v>
+        <v>2500</v>
       </c>
       <c r="E81" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="G81" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
       </c>
       <c r="O81" s="3">
         <v>-500</v>
       </c>
       <c r="P81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-1200</v>
       </c>
       <c r="R81" s="3">
         <v>-1200</v>
       </c>
       <c r="S81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,49 +5416,50 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
-        <v>1700</v>
-      </c>
       <c r="I83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1900</v>
       </c>
       <c r="N83" s="3">
         <v>1900</v>
       </c>
       <c r="O83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P83" s="3">
         <v>1700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1600</v>
       </c>
       <c r="Q83" s="3">
         <v>1600</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11800</v>
+        <v>2000</v>
       </c>
       <c r="E89" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F89" s="3">
         <v>2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
-        <v>6700</v>
-      </c>
       <c r="H89" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I89" s="3">
         <v>6800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-2600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>800</v>
+      </c>
+      <c r="G94" s="3">
         <v>17200</v>
       </c>
-      <c r="E94" s="3">
-        <v>800</v>
-      </c>
-      <c r="F94" s="3">
-        <v>17400</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>4300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5700</v>
+        <v>-1700</v>
       </c>
       <c r="E100" s="3">
-        <v>-11100</v>
+        <v>-5600</v>
       </c>
       <c r="F100" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6406,92 +6655,98 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23300</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
-        <v>-8100</v>
+        <v>23100</v>
       </c>
       <c r="F102" s="3">
-        <v>16200</v>
+        <v>-8000</v>
       </c>
       <c r="G102" s="3">
+        <v>16000</v>
+      </c>
+      <c r="H102" s="3">
         <v>4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5000</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFHL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>FFHL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15100</v>
+        <v>12300</v>
       </c>
       <c r="E8" s="3">
-        <v>57900</v>
+        <v>14400</v>
       </c>
       <c r="F8" s="3">
-        <v>14700</v>
+        <v>55200</v>
       </c>
       <c r="G8" s="3">
-        <v>14800</v>
+        <v>14000</v>
       </c>
       <c r="H8" s="3">
+        <v>14100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K8" s="3">
+        <v>12100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>12300</v>
+      </c>
+      <c r="M8" s="3">
+        <v>13700</v>
+      </c>
+      <c r="N8" s="3">
+        <v>12300</v>
+      </c>
+      <c r="O8" s="3">
+        <v>13700</v>
+      </c>
+      <c r="P8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>13100</v>
+      </c>
+      <c r="R8" s="3">
         <v>12600</v>
       </c>
-      <c r="I8" s="3">
-        <v>12300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>12100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>12300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>13700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>12300</v>
-      </c>
-      <c r="N8" s="3">
-        <v>13700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>12400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>13100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>12600</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10700</v>
+        <v>8900</v>
       </c>
       <c r="E9" s="3">
-        <v>36200</v>
+        <v>10200</v>
       </c>
       <c r="F9" s="3">
+        <v>34500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M9" s="3">
+        <v>8800</v>
+      </c>
+      <c r="N9" s="3">
         <v>8900</v>
       </c>
-      <c r="G9" s="3">
-        <v>8600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>7100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>7900</v>
-      </c>
-      <c r="L9" s="3">
-        <v>8800</v>
-      </c>
-      <c r="M9" s="3">
-        <v>8900</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9700</v>
-      </c>
-      <c r="T9" s="3">
-        <v>10000</v>
       </c>
       <c r="U9" s="3">
         <v>10000</v>
       </c>
       <c r="V9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="W9" s="3">
         <v>9700</v>
-      </c>
-      <c r="W9" s="3">
-        <v>9500</v>
       </c>
       <c r="X9" s="3">
         <v>9500</v>
       </c>
       <c r="Y9" s="3">
+        <v>9500</v>
+      </c>
+      <c r="Z9" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="E10" s="3">
-        <v>21700</v>
+        <v>4200</v>
       </c>
       <c r="F10" s="3">
-        <v>5800</v>
+        <v>20700</v>
       </c>
       <c r="G10" s="3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="H10" s="3">
-        <v>5300</v>
+        <v>5900</v>
       </c>
       <c r="I10" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="J10" s="3">
         <v>5000</v>
       </c>
       <c r="K10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L10" s="3">
         <v>4400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1203,8 +1223,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1212,14 +1232,17 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12700</v>
+        <v>10800</v>
       </c>
       <c r="E17" s="3">
-        <v>44100</v>
+        <v>12100</v>
       </c>
       <c r="F17" s="3">
-        <v>10900</v>
+        <v>42000</v>
       </c>
       <c r="G17" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="H17" s="3">
-        <v>16100</v>
+        <v>9700</v>
       </c>
       <c r="I17" s="3">
+        <v>15400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K17" s="3">
+        <v>9800</v>
+      </c>
+      <c r="L17" s="3">
         <v>10100</v>
       </c>
-      <c r="J17" s="3">
-        <v>9800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>10100</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>12700</v>
       </c>
       <c r="Q17" s="3">
         <v>12700</v>
       </c>
       <c r="R17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="S17" s="3">
         <v>12100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>12100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>13200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M18" s="3">
         <v>2400</v>
       </c>
-      <c r="E18" s="3">
-        <v>13800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-900</v>
       </c>
       <c r="S18" s="3">
         <v>-900</v>
       </c>
       <c r="T18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U18" s="3">
         <v>-800</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-1400</v>
       </c>
       <c r="V18" s="3">
         <v>-1400</v>
       </c>
       <c r="W18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,28 +1515,29 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1512,35 +1546,35 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1548,84 +1582,90 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="E21" s="3">
-        <v>16500</v>
+        <v>3000</v>
       </c>
       <c r="F21" s="3">
-        <v>4400</v>
+        <v>15700</v>
       </c>
       <c r="G21" s="3">
-        <v>5300</v>
+        <v>4200</v>
       </c>
       <c r="H21" s="3">
-        <v>-1800</v>
+        <v>5000</v>
       </c>
       <c r="I21" s="3">
-        <v>3900</v>
+        <v>-1700</v>
       </c>
       <c r="J21" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K21" s="3">
         <v>4000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>2400</v>
       </c>
       <c r="N21" s="3">
         <v>2400</v>
       </c>
       <c r="O21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P21" s="3">
         <v>1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1800</v>
-      </c>
-      <c r="R21" s="3">
-        <v>700</v>
       </c>
       <c r="S21" s="3">
         <v>700</v>
       </c>
       <c r="T21" s="3">
+        <v>700</v>
+      </c>
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>100</v>
-      </c>
-      <c r="V21" s="3">
-        <v>200</v>
       </c>
       <c r="W21" s="3">
         <v>200</v>
       </c>
       <c r="X21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y21" s="3">
         <v>100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1633,19 +1673,19 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1660,19 +1700,19 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>400</v>
       </c>
       <c r="R22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
@@ -1684,90 +1724,96 @@
         <v>300</v>
       </c>
       <c r="V22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W22" s="3">
         <v>400</v>
       </c>
       <c r="X22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="E23" s="3">
-        <v>13900</v>
+        <v>2400</v>
       </c>
       <c r="F23" s="3">
-        <v>3700</v>
+        <v>13300</v>
       </c>
       <c r="G23" s="3">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="H23" s="3">
-        <v>-3900</v>
+        <v>4400</v>
       </c>
       <c r="I23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-1200</v>
       </c>
       <c r="S23" s="3">
         <v>-1200</v>
       </c>
       <c r="T23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1775,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>800</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H24" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1796,11 +1842,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1808,11 +1854,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1820,11 +1866,11 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1832,13 +1878,16 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>800</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="E26" s="3">
-        <v>13000</v>
+        <v>2400</v>
       </c>
       <c r="F26" s="3">
-        <v>2900</v>
+        <v>12400</v>
       </c>
       <c r="G26" s="3">
-        <v>4600</v>
+        <v>2800</v>
       </c>
       <c r="H26" s="3">
-        <v>-3000</v>
+        <v>4400</v>
       </c>
       <c r="I26" s="3">
-        <v>2000</v>
+        <v>-2900</v>
       </c>
       <c r="J26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-1200</v>
       </c>
       <c r="S26" s="3">
         <v>-1200</v>
       </c>
       <c r="T26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="E27" s="3">
-        <v>13000</v>
+        <v>2400</v>
       </c>
       <c r="F27" s="3">
-        <v>2900</v>
+        <v>12400</v>
       </c>
       <c r="G27" s="3">
-        <v>4600</v>
+        <v>2800</v>
       </c>
       <c r="H27" s="3">
-        <v>-3000</v>
+        <v>4400</v>
       </c>
       <c r="I27" s="3">
-        <v>2000</v>
+        <v>-2900</v>
       </c>
       <c r="J27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-1200</v>
       </c>
       <c r="S27" s="3">
         <v>-1200</v>
       </c>
       <c r="T27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,28 +2401,31 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -2364,35 +2434,35 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2400,84 +2470,90 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="E33" s="3">
-        <v>13000</v>
+        <v>2400</v>
       </c>
       <c r="F33" s="3">
-        <v>2900</v>
+        <v>12400</v>
       </c>
       <c r="G33" s="3">
-        <v>4600</v>
+        <v>2800</v>
       </c>
       <c r="H33" s="3">
-        <v>-3000</v>
+        <v>4400</v>
       </c>
       <c r="I33" s="3">
-        <v>2000</v>
+        <v>-2900</v>
       </c>
       <c r="J33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-1200</v>
       </c>
       <c r="S33" s="3">
         <v>-1200</v>
       </c>
       <c r="T33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="E35" s="3">
-        <v>13000</v>
+        <v>2400</v>
       </c>
       <c r="F35" s="3">
-        <v>2900</v>
+        <v>12400</v>
       </c>
       <c r="G35" s="3">
-        <v>4600</v>
+        <v>2800</v>
       </c>
       <c r="H35" s="3">
-        <v>-3000</v>
+        <v>4400</v>
       </c>
       <c r="I35" s="3">
-        <v>2000</v>
+        <v>-2900</v>
       </c>
       <c r="J35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-1200</v>
       </c>
       <c r="S35" s="3">
         <v>-1200</v>
       </c>
       <c r="T35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38100</v>
+        <v>34200</v>
       </c>
       <c r="E41" s="3">
-        <v>36600</v>
+        <v>36400</v>
       </c>
       <c r="F41" s="3">
-        <v>25700</v>
+        <v>34900</v>
       </c>
       <c r="G41" s="3">
-        <v>31900</v>
+        <v>24500</v>
       </c>
       <c r="H41" s="3">
-        <v>16600</v>
+        <v>30400</v>
       </c>
       <c r="I41" s="3">
-        <v>12600</v>
+        <v>15800</v>
       </c>
       <c r="J41" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K41" s="3">
         <v>11100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,138 +2980,144 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="E43" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="F43" s="3">
-        <v>6400</v>
+        <v>4100</v>
       </c>
       <c r="G43" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="H43" s="3">
-        <v>4700</v>
+        <v>6300</v>
       </c>
       <c r="I43" s="3">
-        <v>3400</v>
+        <v>4500</v>
       </c>
       <c r="J43" s="3">
-        <v>6100</v>
+        <v>3300</v>
       </c>
       <c r="K43" s="3">
         <v>6100</v>
       </c>
       <c r="L43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="M43" s="3">
         <v>4300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5500</v>
+        <v>6500</v>
       </c>
       <c r="E44" s="3">
         <v>5200</v>
       </c>
       <c r="F44" s="3">
-        <v>3600</v>
+        <v>4900</v>
       </c>
       <c r="G44" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="H44" s="3">
-        <v>3700</v>
+        <v>3100</v>
       </c>
       <c r="I44" s="3">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="J44" s="3">
         <v>3800</v>
       </c>
       <c r="K44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L44" s="3">
         <v>3600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3200</v>
-      </c>
-      <c r="V44" s="3">
-        <v>3700</v>
       </c>
       <c r="W44" s="3">
         <v>3700</v>
@@ -3030,152 +3126,161 @@
         <v>3700</v>
       </c>
       <c r="Y44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Z44" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4500</v>
+        <v>5600</v>
       </c>
       <c r="E45" s="3">
-        <v>5600</v>
+        <v>4300</v>
       </c>
       <c r="F45" s="3">
-        <v>1900</v>
+        <v>5400</v>
       </c>
       <c r="G45" s="3">
-        <v>22800</v>
+        <v>1800</v>
       </c>
       <c r="H45" s="3">
-        <v>21300</v>
+        <v>21700</v>
       </c>
       <c r="I45" s="3">
-        <v>1900</v>
+        <v>20300</v>
       </c>
       <c r="J45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>52300</v>
+        <v>49900</v>
       </c>
       <c r="E46" s="3">
-        <v>51700</v>
+        <v>49800</v>
       </c>
       <c r="F46" s="3">
-        <v>37600</v>
+        <v>49300</v>
       </c>
       <c r="G46" s="3">
-        <v>64500</v>
+        <v>35800</v>
       </c>
       <c r="H46" s="3">
-        <v>46300</v>
+        <v>61500</v>
       </c>
       <c r="I46" s="3">
-        <v>21900</v>
+        <v>44100</v>
       </c>
       <c r="J46" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K46" s="3">
         <v>23400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>20100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>23100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>19500</v>
-      </c>
-      <c r="X46" s="3">
-        <v>22600</v>
       </c>
       <c r="Y46" s="3">
         <v>22600</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,79 +3350,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15300</v>
+        <v>15000</v>
       </c>
       <c r="E48" s="3">
-        <v>15600</v>
+        <v>14500</v>
       </c>
       <c r="F48" s="3">
+        <v>14900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>15200</v>
+      </c>
+      <c r="I48" s="3">
         <v>15500</v>
       </c>
-      <c r="G48" s="3">
-        <v>15900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>16300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>40800</v>
-      </c>
       <c r="J48" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K48" s="3">
         <v>41900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>47700</v>
       </c>
       <c r="M48" s="3">
         <v>47700</v>
       </c>
       <c r="N48" s="3">
+        <v>47700</v>
+      </c>
+      <c r="O48" s="3">
         <v>48500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>48100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>49800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>49200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>51700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>55100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>56800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>58200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>59400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>59800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3354,23 +3465,23 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2400</v>
       </c>
       <c r="Q49" s="3">
         <v>2400</v>
       </c>
       <c r="R49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S49" s="3">
         <v>2300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2400</v>
-      </c>
-      <c r="T49" s="3">
-        <v>2500</v>
       </c>
       <c r="U49" s="3">
         <v>2500</v>
@@ -3379,16 +3490,19 @@
         <v>2500</v>
       </c>
       <c r="W49" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X49" s="3">
         <v>2600</v>
-      </c>
-      <c r="X49" s="3">
-        <v>2500</v>
       </c>
       <c r="Y49" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,40 +3646,43 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="E52" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F52" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2500</v>
-      </c>
       <c r="J52" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K52" s="3">
         <v>2600</v>
       </c>
       <c r="L52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M52" s="3">
         <v>2800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>3200</v>
       </c>
       <c r="N52" s="3">
         <v>3200</v>
@@ -3571,10 +3691,10 @@
         <v>3200</v>
       </c>
       <c r="P52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>700</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1200</v>
       </c>
       <c r="R52" s="3">
         <v>1200</v>
@@ -3583,25 +3703,28 @@
         <v>1200</v>
       </c>
       <c r="T52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U52" s="3">
         <v>1300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69700</v>
+        <v>67000</v>
       </c>
       <c r="E54" s="3">
+        <v>66400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>66200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>52700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>78900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>62000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K54" s="3">
+        <v>67900</v>
+      </c>
+      <c r="L54" s="3">
+        <v>68500</v>
+      </c>
+      <c r="M54" s="3">
+        <v>73500</v>
+      </c>
+      <c r="N54" s="3">
+        <v>71500</v>
+      </c>
+      <c r="O54" s="3">
+        <v>71800</v>
+      </c>
+      <c r="P54" s="3">
         <v>69500</v>
       </c>
-      <c r="F54" s="3">
-        <v>55300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>82800</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="Q54" s="3">
+        <v>66000</v>
+      </c>
+      <c r="R54" s="3">
+        <v>73600</v>
+      </c>
+      <c r="S54" s="3">
+        <v>67600</v>
+      </c>
+      <c r="T54" s="3">
         <v>65100</v>
       </c>
-      <c r="I54" s="3">
-        <v>65200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>67900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>68500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>73500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>71500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>71800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>69500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>66000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>73600</v>
-      </c>
-      <c r="R54" s="3">
-        <v>67600</v>
-      </c>
-      <c r="S54" s="3">
-        <v>65100</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>76800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>83800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>78700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>82700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>86300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>89000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,292 +3926,305 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4000</v>
+        <v>3100</v>
       </c>
       <c r="E57" s="3">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="F57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>20800</v>
+      </c>
+      <c r="M57" s="3">
+        <v>21900</v>
+      </c>
+      <c r="N57" s="3">
+        <v>21400</v>
+      </c>
+      <c r="O57" s="3">
+        <v>21800</v>
+      </c>
+      <c r="P57" s="3">
+        <v>20800</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>19700</v>
+      </c>
+      <c r="R57" s="3">
+        <v>19400</v>
+      </c>
+      <c r="S57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="T57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
-        <v>14500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>16900</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="W57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Y57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
-        <v>20800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>21900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>21400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>21800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>20800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>19700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>19400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>3200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="T57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="U57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="V57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="W57" s="3">
-        <v>2700</v>
-      </c>
-      <c r="X57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15100</v>
+        <v>14300</v>
       </c>
       <c r="E58" s="3">
-        <v>16800</v>
+        <v>14400</v>
       </c>
       <c r="F58" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J58" s="3">
         <v>9500</v>
       </c>
-      <c r="G58" s="3">
-        <v>20500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>11700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>16400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>22600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>34400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>30300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>39900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>44700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>38300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>40800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>43000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>40600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
-        <v>2800</v>
-      </c>
       <c r="F59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>20200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
-        <v>21200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
+        <v>19300</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
-        <v>19300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1000</v>
       </c>
       <c r="P59" s="3">
         <v>1000</v>
       </c>
       <c r="Q59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20700</v>
+        <v>18300</v>
       </c>
       <c r="E60" s="3">
-        <v>22900</v>
+        <v>19700</v>
       </c>
       <c r="F60" s="3">
-        <v>14300</v>
+        <v>21800</v>
       </c>
       <c r="G60" s="3">
+        <v>13600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>42600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>30100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K60" s="3">
+        <v>33200</v>
+      </c>
+      <c r="L60" s="3">
+        <v>35600</v>
+      </c>
+      <c r="M60" s="3">
+        <v>40300</v>
+      </c>
+      <c r="N60" s="3">
+        <v>40600</v>
+      </c>
+      <c r="O60" s="3">
+        <v>41100</v>
+      </c>
+      <c r="P60" s="3">
+        <v>39600</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>37100</v>
+      </c>
+      <c r="R60" s="3">
+        <v>44100</v>
+      </c>
+      <c r="S60" s="3">
+        <v>39000</v>
+      </c>
+      <c r="T60" s="3">
+        <v>34500</v>
+      </c>
+      <c r="U60" s="3">
+        <v>43600</v>
+      </c>
+      <c r="V60" s="3">
+        <v>49200</v>
+      </c>
+      <c r="W60" s="3">
+        <v>42500</v>
+      </c>
+      <c r="X60" s="3">
         <v>44700</v>
       </c>
-      <c r="H60" s="3">
-        <v>31500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>28600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>33200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>35600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>40300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>40600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>41100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>39600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>37100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>44100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>39000</v>
-      </c>
-      <c r="S60" s="3">
-        <v>34500</v>
-      </c>
-      <c r="T60" s="3">
-        <v>43600</v>
-      </c>
-      <c r="U60" s="3">
-        <v>49200</v>
-      </c>
-      <c r="V60" s="3">
-        <v>42500</v>
-      </c>
-      <c r="W60" s="3">
-        <v>44700</v>
-      </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>47300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>46800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4149,21 +4292,24 @@
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -4181,7 +4327,7 @@
         <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
@@ -4220,10 +4366,13 @@
         <v>400</v>
       </c>
       <c r="Y62" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z62" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20900</v>
+        <v>18600</v>
       </c>
       <c r="E66" s="3">
-        <v>23200</v>
+        <v>19900</v>
       </c>
       <c r="F66" s="3">
-        <v>14500</v>
+        <v>22100</v>
       </c>
       <c r="G66" s="3">
-        <v>45000</v>
+        <v>13800</v>
       </c>
       <c r="H66" s="3">
-        <v>31800</v>
+        <v>42900</v>
       </c>
       <c r="I66" s="3">
-        <v>28900</v>
+        <v>30300</v>
       </c>
       <c r="J66" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K66" s="3">
         <v>33500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>40000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>44500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>34800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>44000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>42900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>45100</v>
-      </c>
-      <c r="X66" s="3">
-        <v>47700</v>
       </c>
       <c r="Y66" s="3">
         <v>47700</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>47700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E72" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1300</v>
       </c>
-      <c r="F72" s="3">
-        <v>-6900</v>
-      </c>
       <c r="G72" s="3">
-        <v>-9800</v>
+        <v>-6600</v>
       </c>
       <c r="H72" s="3">
-        <v>-14300</v>
+        <v>-9300</v>
       </c>
       <c r="I72" s="3">
-        <v>-11300</v>
+        <v>-13700</v>
       </c>
       <c r="J72" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-13300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-20500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-20300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-16500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-15900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-14400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48800</v>
+        <v>48400</v>
       </c>
       <c r="E76" s="3">
-        <v>46300</v>
+        <v>46500</v>
       </c>
       <c r="F76" s="3">
-        <v>40700</v>
+        <v>44100</v>
       </c>
       <c r="G76" s="3">
-        <v>37800</v>
+        <v>38800</v>
       </c>
       <c r="H76" s="3">
-        <v>33300</v>
+        <v>36100</v>
       </c>
       <c r="I76" s="3">
-        <v>36300</v>
+        <v>31700</v>
       </c>
       <c r="J76" s="3">
+        <v>34600</v>
+      </c>
+      <c r="K76" s="3">
         <v>34300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>34200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>35800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>37600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>38600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>41300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="E81" s="3">
-        <v>13000</v>
+        <v>2400</v>
       </c>
       <c r="F81" s="3">
-        <v>2900</v>
+        <v>12400</v>
       </c>
       <c r="G81" s="3">
-        <v>4600</v>
+        <v>2800</v>
       </c>
       <c r="H81" s="3">
-        <v>-3000</v>
+        <v>4400</v>
       </c>
       <c r="I81" s="3">
-        <v>2000</v>
+        <v>-2900</v>
       </c>
       <c r="J81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-1200</v>
       </c>
       <c r="S81" s="3">
         <v>-1200</v>
       </c>
       <c r="T81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,43 +5625,43 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
         <v>1800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1600</v>
       </c>
       <c r="J83" s="3">
         <v>1600</v>
       </c>
       <c r="K83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1900</v>
       </c>
       <c r="O83" s="3">
         <v>1900</v>
       </c>
       <c r="P83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1600</v>
       </c>
       <c r="R83" s="3">
         <v>1600</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2000</v>
+        <v>-1000</v>
       </c>
       <c r="E89" s="3">
-        <v>11700</v>
+        <v>1900</v>
       </c>
       <c r="F89" s="3">
-        <v>2200</v>
+        <v>11100</v>
       </c>
       <c r="G89" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
-        <v>6600</v>
-      </c>
       <c r="I89" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="J89" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K89" s="3">
         <v>4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5950,70 +6171,73 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1200</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1500</v>
-      </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>17000</v>
-      </c>
       <c r="F94" s="3">
+        <v>16200</v>
+      </c>
+      <c r="G94" s="3">
         <v>800</v>
       </c>
-      <c r="G94" s="3">
-        <v>17200</v>
-      </c>
       <c r="H94" s="3">
+        <v>16400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>7400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>4300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1700</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
-        <v>-5600</v>
+        <v>-1600</v>
       </c>
       <c r="F100" s="3">
-        <v>-11000</v>
+        <v>-5400</v>
       </c>
       <c r="G100" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="M100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6658,95 +6907,101 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>23100</v>
-      </c>
       <c r="F102" s="3">
-        <v>-8000</v>
+        <v>22000</v>
       </c>
       <c r="G102" s="3">
-        <v>16000</v>
+        <v>-7600</v>
       </c>
       <c r="H102" s="3">
-        <v>4700</v>
+        <v>15300</v>
       </c>
       <c r="I102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N102" s="3">
+        <v>200</v>
+      </c>
+      <c r="O102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="U102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="V102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M102" s="3">
-        <v>200</v>
-      </c>
-      <c r="N102" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O102" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>2300</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="U102" s="3">
-        <v>1100</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1100</v>
       </c>
     </row>
